--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lillestrom.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lillestrom.kommune.no.xlsx
@@ -445,34 +445,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7669.153517971802</v>
+        <v>8181.400045</v>
       </c>
       <c r="C2">
-        <v>3424.48408</v>
+        <v>2723.32111</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>7854.700334174622</v>
+        <v>8375.1520075</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6217.929949600838</v>
+        <v>6411.008357168481</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2">
-        <v>1346949</v>
+        <v>1323488</v>
       </c>
       <c r="K2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -480,16 +480,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5661.794599999999</v>
+        <v>5829.673275000001</v>
       </c>
       <c r="C3">
-        <v>2704.8844000000004</v>
+        <v>2749.4143099999997</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E3">
-        <v>5802.17102</v>
+        <v>5948.737927500001</v>
       </c>
       <c r="F3">
         <v>7.5</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5885.133110160984</v>
+        <v>5652.565882778654</v>
       </c>
       <c r="I3">
         <v>70</v>
       </c>
       <c r="J3">
-        <v>888842</v>
+        <v>874911</v>
       </c>
       <c r="K3">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -515,34 +515,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6436.65653</v>
+        <v>5458.567999999999</v>
       </c>
       <c r="C4">
-        <v>2799.2503150000002</v>
+        <v>2710.7805</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>6498.778806</v>
+        <v>5576.21075</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5870.3540481287255</v>
+        <v>5314.730298880579</v>
       </c>
       <c r="I4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>889617</v>
+        <v>803359</v>
       </c>
       <c r="K4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6436.65653</v>
+        <v>5829.673275000001</v>
       </c>
       <c r="C5">
-        <v>2799.2503150000002</v>
+        <v>2723.32111</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>6498.778806</v>
+        <v>5948.737927500001</v>
       </c>
       <c r="F5">
         <v>7.5</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5885.133110160984</v>
+        <v>5652.565882778654</v>
       </c>
       <c r="I5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J5">
-        <v>889617</v>
+        <v>874911</v>
       </c>
       <c r="K5">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>21631</v>
+        <v>21773</v>
       </c>
       <c r="F2">
-        <v>72135</v>
+        <v>73431</v>
       </c>
       <c r="G2">
-        <v>0.006290576002999999</v>
+        <v>0.006331871448999999</v>
       </c>
       <c r="H2">
-        <v>0.0082864337634</v>
+        <v>0.008340831322200001</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E3">
-        <v>12387</v>
+        <v>12385</v>
       </c>
       <c r="F3">
         <v>41113</v>
       </c>
       <c r="G3">
-        <v>0.0036023006309999993</v>
+        <v>0.0036017190049999993</v>
       </c>
       <c r="H3">
-        <v>0.0047452293018</v>
+        <v>0.004744463139</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E4">
-        <v>14408</v>
+        <v>14628</v>
       </c>
       <c r="F4">
         <v>14044</v>
       </c>
       <c r="G4">
-        <v>0.004190033703999999</v>
+        <v>0.004254012563999999</v>
       </c>
       <c r="H4">
-        <v>0.0055194368112</v>
+        <v>0.005603714719200001</v>
       </c>
     </row>
     <row r="5">
@@ -712,16 +712,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E5">
-        <v>14751</v>
+        <v>14531</v>
       </c>
       <c r="F5">
         <v>14176</v>
       </c>
       <c r="G5">
-        <v>0.004289782563</v>
+        <v>0.0042258037029999996</v>
       </c>
       <c r="H5">
-        <v>0.0056508337314000005</v>
+        <v>0.005566555823400001</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?47980c85-278c-beba-6c0a-523025a38a62</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -790,16 +790,16 @@
         <v>text/css</v>
       </c>
       <c r="E8">
-        <v>69446</v>
+        <v>69428</v>
       </c>
       <c r="F8">
-        <v>633489</v>
+        <v>633465</v>
       </c>
       <c r="G8">
-        <v>0.020195799597999997</v>
+        <v>0.020190564964</v>
       </c>
       <c r="H8">
-        <v>0.026603470904400003</v>
+        <v>0.0265965754392</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?47980c85-278c-beba-6c0a-523025a38a62</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
       </c>
       <c r="C11" t="str">
         <v>Script</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
       </c>
       <c r="C12" t="str">
         <v>Image</v>
@@ -894,16 +894,16 @@
         <v>image/webp</v>
       </c>
       <c r="E12">
-        <v>140474</v>
+        <v>53221</v>
       </c>
       <c r="F12">
-        <v>140088</v>
+        <v>52770</v>
       </c>
       <c r="G12">
-        <v>0.040851665361999995</v>
+        <v>0.015477358672999998</v>
       </c>
       <c r="H12">
-        <v>0.0538129765836</v>
+        <v>0.0203879751894</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
       </c>
       <c r="C13" t="str">
         <v>Image</v>
@@ -920,16 +920,16 @@
         <v>image/webp</v>
       </c>
       <c r="E13">
-        <v>39583</v>
+        <v>140474</v>
       </c>
       <c r="F13">
-        <v>39132</v>
+        <v>140088</v>
       </c>
       <c r="G13">
-        <v>0.011511250978999998</v>
+        <v>0.040851665361999995</v>
       </c>
       <c r="H13">
-        <v>0.015163511056200002</v>
+        <v>0.0538129765836</v>
       </c>
     </row>
     <row r="14">
@@ -937,25 +937,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
       </c>
       <c r="C14" t="str">
         <v>Image</v>
       </c>
       <c r="D14" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E14">
-        <v>53211</v>
-      </c>
-      <c r="F14">
-        <v>52760</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.015474450542999998</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.020384144375400003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -963,22 +960,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
       </c>
       <c r="C15" t="str">
         <v>Image</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>39583</v>
+      </c>
+      <c r="F15">
+        <v>39132</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.011511250978999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.015163511056200002</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ordforer_kjartan_berland9699.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
       </c>
       <c r="C16" t="str">
         <v>Image</v>
@@ -995,16 +995,16 @@
         <v>image/webp</v>
       </c>
       <c r="E16">
-        <v>28321</v>
+        <v>106334</v>
       </c>
       <c r="F16">
-        <v>27870</v>
+        <v>105948</v>
       </c>
       <c r="G16">
-        <v>0.008236114972999998</v>
+        <v>0.030923309541999993</v>
       </c>
       <c r="H16">
-        <v>0.010849248329400001</v>
+        <v>0.040734577587600004</v>
       </c>
     </row>
     <row r="17">
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/foto_-humle-pa-rodknapp.-la-humla-suse.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
       </c>
       <c r="C17" t="str">
         <v>Image</v>
@@ -1021,16 +1021,16 @@
         <v>image/webp</v>
       </c>
       <c r="E17">
-        <v>56879</v>
+        <v>38325</v>
       </c>
       <c r="F17">
-        <v>56428</v>
+        <v>37874</v>
       </c>
       <c r="G17">
-        <v>0.016541152626999997</v>
+        <v>0.011145408224999999</v>
       </c>
       <c r="H17">
-        <v>0.0217892869506</v>
+        <v>0.014681594655000001</v>
       </c>
     </row>
     <row r="18">
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
       </c>
       <c r="C18" t="str">
         <v>Image</v>
@@ -1047,16 +1047,16 @@
         <v>image/webp</v>
       </c>
       <c r="E18">
-        <v>38325</v>
+        <v>135674</v>
       </c>
       <c r="F18">
-        <v>37874</v>
+        <v>135288</v>
       </c>
       <c r="G18">
-        <v>0.011145408224999999</v>
+        <v>0.039455762962</v>
       </c>
       <c r="H18">
-        <v>0.014681594655000001</v>
+        <v>0.0519741858636</v>
       </c>
     </row>
     <row r="19">
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
       </c>
       <c r="C19" t="str">
         <v>Image</v>
@@ -1073,16 +1073,16 @@
         <v>image/webp</v>
       </c>
       <c r="E19">
-        <v>239420</v>
+        <v>43315</v>
       </c>
       <c r="F19">
-        <v>239034</v>
+        <v>42864</v>
       </c>
       <c r="G19">
-        <v>0.06962644845999999</v>
+        <v>0.012596565094999998</v>
       </c>
       <c r="H19">
-        <v>0.09171734878800002</v>
+        <v>0.016593170841000003</v>
       </c>
     </row>
     <row r="20">
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/doktorgarden.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
       </c>
       <c r="C20" t="str">
         <v>Image</v>
@@ -1099,16 +1099,16 @@
         <v>image/webp</v>
       </c>
       <c r="E20">
-        <v>161762</v>
+        <v>53211</v>
       </c>
       <c r="F20">
-        <v>161376</v>
+        <v>52760</v>
       </c>
       <c r="G20">
-        <v>0.04704249250599999</v>
+        <v>0.015474450542999998</v>
       </c>
       <c r="H20">
-        <v>0.061968013426800014</v>
+        <v>0.020384144375400003</v>
       </c>
     </row>
     <row r="21">
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
       </c>
       <c r="C21" t="str">
         <v>Image</v>
@@ -1125,16 +1125,16 @@
         <v>image/webp</v>
       </c>
       <c r="E21">
-        <v>54031</v>
+        <v>386</v>
       </c>
       <c r="F21">
-        <v>53580</v>
+        <v>15382</v>
       </c>
       <c r="G21">
-        <v>0.015712917203</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H21">
-        <v>0.0206982711234</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="22">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
       </c>
       <c r="C22" t="str">
         <v>Image</v>
@@ -1165,25 +1165,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
       </c>
       <c r="D23" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E23">
-        <v>56835</v>
+        <v>386</v>
       </c>
       <c r="F23">
-        <v>56384</v>
+        <v>15382</v>
       </c>
       <c r="G23">
-        <v>0.016528356855</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H23">
-        <v>0.021772431369000003</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="24">
@@ -1191,22 +1191,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kommunestyremote_2025-5.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>73161</v>
+      </c>
+      <c r="F24">
+        <v>72710</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.021276169892999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0280266183054</v>
       </c>
     </row>
     <row r="25">
@@ -1214,22 +1217,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/hvamkart.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
       </c>
       <c r="C25" t="str">
         <v>Image</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>54031</v>
+      </c>
+      <c r="F25">
+        <v>53580</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.015712917203</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0206982711234</v>
       </c>
     </row>
     <row r="26">
@@ -1237,22 +1243,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>63657</v>
+      </c>
+      <c r="F26">
+        <v>63206</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.018512283140999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.0243858126798</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1269,25 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?47980c85-278c-beba-6c0a-523025a38a62</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
       </c>
       <c r="C27" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D27" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E27">
-        <v>9787</v>
+        <v>43567</v>
       </c>
       <c r="F27">
-        <v>25748</v>
+        <v>43116</v>
       </c>
       <c r="G27">
-        <v>0.0028461868309999994</v>
+        <v>0.012669849970999998</v>
       </c>
       <c r="H27">
-        <v>0.0037492176618</v>
+        <v>0.0166897073538</v>
       </c>
     </row>
     <row r="28">
@@ -1286,25 +1295,22 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
       </c>
       <c r="C28" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D28" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E28">
-        <v>47064</v>
-      </c>
-      <c r="F28">
-        <v>237111</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.013686823031999999</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.018029343009599998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1312,25 +1318,25 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
       </c>
       <c r="C29" t="str">
         <v>Script</v>
       </c>
       <c r="D29" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E29">
-        <v>112115</v>
+        <v>9787</v>
       </c>
       <c r="F29">
-        <v>457048</v>
+        <v>25748</v>
       </c>
       <c r="G29">
-        <v>0.032604499494999994</v>
+        <v>0.0028461868309999994</v>
       </c>
       <c r="H29">
-        <v>0.042949171161000006</v>
+        <v>0.0037492176618</v>
       </c>
     </row>
     <row r="30">
@@ -1338,25 +1344,25 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
+        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
       </c>
       <c r="C30" t="str">
         <v>Script</v>
       </c>
       <c r="D30" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E30">
-        <v>5752</v>
+        <v>47192</v>
       </c>
       <c r="F30">
-        <v>17044</v>
+        <v>237111</v>
       </c>
       <c r="G30">
-        <v>0.0016727563759999999</v>
+        <v>0.013724047096</v>
       </c>
       <c r="H30">
-        <v>0.0022034842128</v>
+        <v>0.0180783774288</v>
       </c>
     </row>
     <row r="31">
@@ -1364,25 +1370,25 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
+        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
       </c>
       <c r="C31" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D31" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E31">
-        <v>3060</v>
+        <v>112054</v>
       </c>
       <c r="F31">
-        <v>2686</v>
+        <v>457048</v>
       </c>
       <c r="G31">
-        <v>0.0008898877799999999</v>
+        <v>0.032586759901999995</v>
       </c>
       <c r="H31">
-        <v>0.0011722290840000002</v>
+        <v>0.0429258031956</v>
       </c>
     </row>
     <row r="32">
@@ -1390,25 +1396,25 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
       </c>
       <c r="C32" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D32" t="str">
-        <v>text/html</v>
+        <v>application/javascript</v>
       </c>
       <c r="E32">
-        <v>3010</v>
+        <v>5759</v>
       </c>
       <c r="F32">
-        <v>8796</v>
+        <v>17044</v>
       </c>
       <c r="G32">
-        <v>0.0008753471299999999</v>
+        <v>0.0016747920669999998</v>
       </c>
       <c r="H32">
-        <v>0.001153075014</v>
+        <v>0.0022061657826000004</v>
       </c>
     </row>
     <row r="33">
@@ -1416,25 +1422,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
       </c>
       <c r="C33" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D33" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E33">
-        <v>12207</v>
+        <v>3058</v>
       </c>
       <c r="F33">
-        <v>24603</v>
+        <v>2686</v>
       </c>
       <c r="G33">
-        <v>0.0035499542909999994</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H33">
-        <v>0.004676274649800001</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="34">
@@ -1442,25 +1448,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C34" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D34" t="str">
-        <v>application/x-javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E34">
-        <v>533</v>
+        <v>3011</v>
       </c>
       <c r="F34">
-        <v>69</v>
+        <v>8796</v>
       </c>
       <c r="G34">
-        <v>0.00015500332899999998</v>
+        <v>0.0008756379429999999</v>
       </c>
       <c r="H34">
-        <v>0.00020418238620000006</v>
+        <v>0.0011534580954000002</v>
       </c>
     </row>
     <row r="35">
@@ -1468,25 +1474,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
       </c>
       <c r="C35" t="str">
         <v>Script</v>
       </c>
       <c r="D35" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E35">
-        <v>15447</v>
+        <v>12207</v>
       </c>
       <c r="F35">
-        <v>51946</v>
+        <v>24603</v>
       </c>
       <c r="G35">
-        <v>0.004492188410999999</v>
+        <v>0.0035499542909999994</v>
       </c>
       <c r="H35">
-        <v>0.005917458385800001</v>
+        <v>0.004676274649800001</v>
       </c>
     </row>
     <row r="36">
@@ -1494,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
       </c>
       <c r="C36" t="str">
         <v>Script</v>
@@ -1503,16 +1509,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E36">
-        <v>2365</v>
+        <v>524</v>
       </c>
       <c r="F36">
-        <v>4490</v>
+        <v>69</v>
       </c>
       <c r="G36">
-        <v>0.000687772745</v>
+        <v>0.000152386012</v>
       </c>
       <c r="H36">
-        <v>0.0009059875110000002</v>
+        <v>0.00020073465360000002</v>
       </c>
     </row>
     <row r="37">
@@ -1520,25 +1526,25 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
       </c>
       <c r="C37" t="str">
         <v>Script</v>
       </c>
       <c r="D37" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E37">
-        <v>1215</v>
+        <v>15441</v>
       </c>
       <c r="F37">
-        <v>1132</v>
+        <v>52154</v>
       </c>
       <c r="G37">
-        <v>0.000353337795</v>
+        <v>0.004490443532999999</v>
       </c>
       <c r="H37">
-        <v>0.0004654439010000001</v>
+        <v>0.005915159897400001</v>
       </c>
     </row>
     <row r="38">
@@ -1546,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
       </c>
       <c r="C38" t="str">
         <v>Script</v>
@@ -1555,16 +1561,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E38">
-        <v>1030</v>
+        <v>2335</v>
       </c>
       <c r="F38">
-        <v>891</v>
+        <v>4490</v>
       </c>
       <c r="G38">
-        <v>0.0002995373899999999</v>
+        <v>0.0006790483549999999</v>
       </c>
       <c r="H38">
-        <v>0.00039457384200000006</v>
+        <v>0.0008944950690000001</v>
       </c>
     </row>
     <row r="39">
@@ -1572,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
       </c>
       <c r="C39" t="str">
         <v>Script</v>
@@ -1581,16 +1587,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E39">
-        <v>2312</v>
+        <v>1215</v>
       </c>
       <c r="F39">
-        <v>3896</v>
+        <v>1132</v>
       </c>
       <c r="G39">
-        <v>0.000672359656</v>
+        <v>0.000353337795</v>
       </c>
       <c r="H39">
-        <v>0.0008856841968000002</v>
+        <v>0.0004654439010000001</v>
       </c>
     </row>
     <row r="40">
@@ -1598,25 +1604,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
       </c>
       <c r="C40" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D40" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E40">
-        <v>1259</v>
+        <v>1030</v>
       </c>
       <c r="F40">
-        <v>2080</v>
+        <v>891</v>
       </c>
       <c r="G40">
-        <v>0.00036613356699999994</v>
+        <v>0.0002995373899999999</v>
       </c>
       <c r="H40">
-        <v>0.00048229948260000005</v>
+        <v>0.00039457384200000006</v>
       </c>
     </row>
     <row r="41">
@@ -1624,25 +1630,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
       </c>
       <c r="C41" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D41" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E41">
-        <v>1278</v>
+        <v>2303</v>
       </c>
       <c r="F41">
-        <v>1611</v>
+        <v>3896</v>
       </c>
       <c r="G41">
-        <v>0.00037165901399999993</v>
+        <v>0.0006697423389999999</v>
       </c>
       <c r="H41">
-        <v>0.0004895780292000001</v>
+        <v>0.0008822364642000001</v>
       </c>
     </row>
     <row r="42">
@@ -1650,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
       </c>
       <c r="C42" t="str">
         <v>Image</v>
@@ -1659,16 +1665,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E42">
-        <v>1202</v>
+        <v>1322</v>
       </c>
       <c r="F42">
-        <v>1651</v>
+        <v>2080</v>
       </c>
       <c r="G42">
-        <v>0.000349557226</v>
+        <v>0.00038445478599999995</v>
       </c>
       <c r="H42">
-        <v>0.0004604638428000001</v>
+        <v>0.0005064336108</v>
       </c>
     </row>
     <row r="43">
@@ -1676,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
       </c>
       <c r="C43" t="str">
         <v>Image</v>
@@ -1685,16 +1691,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E43">
-        <v>2316</v>
+        <v>1194</v>
       </c>
       <c r="F43">
-        <v>4655</v>
+        <v>1611</v>
       </c>
       <c r="G43">
-        <v>0.0006735229079999999</v>
+        <v>0.00034723072199999996</v>
       </c>
       <c r="H43">
-        <v>0.0008872165224000001</v>
+        <v>0.00045739919160000007</v>
       </c>
     </row>
     <row r="44">
@@ -1702,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
       </c>
       <c r="C44" t="str">
         <v>Image</v>
@@ -1711,16 +1717,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E44">
-        <v>840</v>
+        <v>1193</v>
       </c>
       <c r="F44">
-        <v>921</v>
+        <v>1651</v>
       </c>
       <c r="G44">
-        <v>0.00024428291999999997</v>
+        <v>0.000346939909</v>
       </c>
       <c r="H44">
-        <v>0.00032178837600000006</v>
+        <v>0.00045701611020000003</v>
       </c>
     </row>
     <row r="45">
@@ -1728,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
       </c>
       <c r="C45" t="str">
         <v>Image</v>
@@ -1737,16 +1743,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E45">
-        <v>1568</v>
+        <v>2316</v>
       </c>
       <c r="F45">
-        <v>4246</v>
+        <v>4655</v>
       </c>
       <c r="G45">
-        <v>0.00045599478399999994</v>
+        <v>0.0006735229079999999</v>
       </c>
       <c r="H45">
-        <v>0.0006006716352000001</v>
+        <v>0.0008872165224000001</v>
       </c>
     </row>
     <row r="46">
@@ -1754,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
       </c>
       <c r="C46" t="str">
         <v>Image</v>
@@ -1763,16 +1769,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E46">
-        <v>1122</v>
+        <v>831</v>
       </c>
       <c r="F46">
-        <v>1464</v>
+        <v>921</v>
       </c>
       <c r="G46">
-        <v>0.00032629218599999996</v>
+        <v>0.000241665603</v>
       </c>
       <c r="H46">
-        <v>0.00042981733080000006</v>
+        <v>0.00031834064339999996</v>
       </c>
     </row>
     <row r="47">
@@ -1780,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
       </c>
       <c r="C47" t="str">
         <v>Image</v>
@@ -1789,16 +1795,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E47">
-        <v>1119</v>
+        <v>1568</v>
       </c>
       <c r="F47">
-        <v>1426</v>
+        <v>4246</v>
       </c>
       <c r="G47">
-        <v>0.00032541974699999997</v>
+        <v>0.00045599478399999994</v>
       </c>
       <c r="H47">
-        <v>0.0004286680866</v>
+        <v>0.0006006716352000001</v>
       </c>
     </row>
     <row r="48">
@@ -1806,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
       </c>
       <c r="C48" t="str">
         <v>Image</v>
@@ -1815,16 +1821,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E48">
-        <v>1457</v>
+        <v>1122</v>
       </c>
       <c r="F48">
-        <v>3019</v>
+        <v>1464</v>
       </c>
       <c r="G48">
-        <v>0.00042371454099999995</v>
+        <v>0.00032629218599999996</v>
       </c>
       <c r="H48">
-        <v>0.0005581495998</v>
+        <v>0.00042981733080000006</v>
       </c>
     </row>
     <row r="49">
@@ -1832,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
       </c>
       <c r="C49" t="str">
         <v>Image</v>
@@ -1841,16 +1847,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E49">
-        <v>1401</v>
+        <v>1119</v>
       </c>
       <c r="F49">
-        <v>2810</v>
+        <v>1426</v>
       </c>
       <c r="G49">
-        <v>0.00040742901299999995</v>
+        <v>0.00032541974699999997</v>
       </c>
       <c r="H49">
-        <v>0.0005366970414</v>
+        <v>0.0004286680866</v>
       </c>
     </row>
     <row r="50">
@@ -1858,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
       </c>
       <c r="C50" t="str">
         <v>Image</v>
@@ -1867,16 +1873,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E50">
-        <v>949</v>
+        <v>1457</v>
       </c>
       <c r="F50">
-        <v>1189</v>
+        <v>3019</v>
       </c>
       <c r="G50">
-        <v>0.0002759815369999999</v>
+        <v>0.00042371454099999995</v>
       </c>
       <c r="H50">
-        <v>0.0003635442486</v>
+        <v>0.0005581495998</v>
       </c>
     </row>
     <row r="51">
@@ -1884,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
       </c>
       <c r="C51" t="str">
         <v>Image</v>
@@ -1893,16 +1899,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E51">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="F51">
-        <v>3816</v>
+        <v>2810</v>
       </c>
       <c r="G51">
-        <v>0.00040248519199999994</v>
+        <v>0.00040742901299999995</v>
       </c>
       <c r="H51">
-        <v>0.0005301846576</v>
+        <v>0.0005366970414</v>
       </c>
     </row>
     <row r="52">
@@ -1910,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
       </c>
       <c r="C52" t="str">
         <v>Image</v>
@@ -1919,16 +1925,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E52">
-        <v>1163</v>
+        <v>949</v>
       </c>
       <c r="F52">
-        <v>1577</v>
+        <v>1189</v>
       </c>
       <c r="G52">
-        <v>0.00033821551899999993</v>
+        <v>0.0002759815369999999</v>
       </c>
       <c r="H52">
-        <v>0.00044552366819999997</v>
+        <v>0.0003635442486</v>
       </c>
     </row>
     <row r="53">
@@ -1936,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
       </c>
       <c r="C53" t="str">
         <v>Image</v>
@@ -1945,16 +1951,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E53">
-        <v>1813</v>
+        <v>1384</v>
       </c>
       <c r="F53">
-        <v>3511</v>
+        <v>3816</v>
       </c>
       <c r="G53">
-        <v>0.000527243969</v>
+        <v>0.00040248519199999994</v>
       </c>
       <c r="H53">
-        <v>0.0006945265782000001</v>
+        <v>0.0005301846576</v>
       </c>
     </row>
     <row r="54">
@@ -1962,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
       </c>
       <c r="C54" t="str">
         <v>Image</v>
@@ -1971,16 +1977,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E54">
-        <v>1059</v>
+        <v>1154</v>
       </c>
       <c r="F54">
-        <v>1362</v>
+        <v>1577</v>
       </c>
       <c r="G54">
-        <v>0.00030797096699999995</v>
+        <v>0.00033559820199999995</v>
       </c>
       <c r="H54">
-        <v>0.00040568320260000003</v>
+        <v>0.00044207593560000003</v>
       </c>
     </row>
     <row r="55">
@@ -1988,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
       </c>
       <c r="C55" t="str">
         <v>Image</v>
@@ -1997,16 +2003,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E55">
-        <v>517</v>
+        <v>1804</v>
       </c>
       <c r="F55">
-        <v>655</v>
+        <v>3511</v>
       </c>
       <c r="G55">
-        <v>0.000150350321</v>
+        <v>0.0005246266519999999</v>
       </c>
       <c r="H55">
-        <v>0.00019805308380000002</v>
+        <v>0.0006910788456000001</v>
       </c>
     </row>
     <row r="56">
@@ -2014,22 +2020,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
       </c>
       <c r="C56" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D56" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1059</v>
+      </c>
+      <c r="F56">
+        <v>1362</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.00030797096699999995</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.00040568320260000003</v>
       </c>
     </row>
     <row r="57">
@@ -2037,25 +2046,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C57" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D57" t="str">
-        <v>text/plain</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E57">
-        <v>122</v>
+        <v>517</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>655</v>
       </c>
       <c r="G57">
-        <v>0.00003547918599999999</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H57">
-        <v>0.00004673593080000001</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="58">
@@ -2063,25 +2072,22 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C58" t="str">
-        <v>Script</v>
+        <v>Preflight</v>
       </c>
       <c r="D58" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E58">
-        <v>15036</v>
-      </c>
-      <c r="F58">
-        <v>277097</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.004372664267999999</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0.005760011930400001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2089,25 +2095,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C59" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D59" t="str">
-        <v>application/x-javascript</v>
+        <v>text/plain</v>
       </c>
       <c r="E59">
-        <v>4015</v>
+        <v>122</v>
       </c>
       <c r="F59">
-        <v>11785</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0.0011676141949999998</v>
+        <v>0.00003547918599999999</v>
       </c>
       <c r="H59">
-        <v>0.001538071821</v>
+        <v>0.00004673593080000001</v>
       </c>
     </row>
     <row r="60">
@@ -2115,25 +2121,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
       </c>
       <c r="C60" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D60" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E60">
-        <v>517</v>
+        <v>15007</v>
       </c>
       <c r="F60">
-        <v>655</v>
+        <v>277097</v>
       </c>
       <c r="G60">
-        <v>0.000150350321</v>
+        <v>0.004364230690999999</v>
       </c>
       <c r="H60">
-        <v>0.00019805308380000002</v>
+        <v>0.005748902569800001</v>
       </c>
     </row>
     <row r="61">
@@ -2141,25 +2147,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
       </c>
       <c r="C61" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D61" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E61">
-        <v>681</v>
+        <v>4015</v>
       </c>
       <c r="F61">
-        <v>285</v>
+        <v>11785</v>
       </c>
       <c r="G61">
-        <v>0.00019804365299999995</v>
+        <v>0.0011676141949999998</v>
       </c>
       <c r="H61">
-        <v>0.00026087843340000006</v>
+        <v>0.001538071821</v>
       </c>
     </row>
     <row r="62">
@@ -2167,25 +2173,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C62" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D62" t="str">
         <v>image/svg+xml</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="F62">
-        <v>285</v>
+        <v>655</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="63">
@@ -2193,25 +2199,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=292&amp;prev=110d641c-1691-9310-7749-40e74fcae03a&amp;luid=d086b814-7729-c0ce-a863-33e74402388e&amp;rnd=2275</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C63" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D63" t="str">
-        <v>image/gif</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E63">
-        <v>210</v>
+        <v>681</v>
       </c>
       <c r="F63">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="G63">
-        <v>0.00006107072999999999</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H63">
-        <v>0.00008044709400000001</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="64">
@@ -2219,25 +2225,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C64" t="str">
-        <v>Manifest</v>
+        <v>Fetch</v>
       </c>
       <c r="D64" t="str">
-        <v>application/manifest+json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E64">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="G64">
-        <v>0.00024602779799999996</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0.00032408686440000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2245,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://v.imgi.no/3bs5kjfz6y</v>
+        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
       </c>
       <c r="C65" t="str">
-        <v>Image</v>
+        <v>Manifest</v>
       </c>
       <c r="D65" t="str">
-        <v>image/png</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E65">
-        <v>8481</v>
+        <v>846</v>
       </c>
       <c r="F65">
-        <v>8099</v>
+        <v>445</v>
       </c>
       <c r="G65">
-        <v>0.0024663850529999995</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H65">
-        <v>0.0032489133534</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="66">
@@ -2271,25 +2277,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=317&amp;prev=37f7ff83-7540-7cb1-4210-c46b8bc1b617&amp;luid=0eaac448-b9f8-5ec9-c2f6-0f8f967b1504&amp;rnd=76809</v>
       </c>
       <c r="C66" t="str">
         <v>Image</v>
       </c>
       <c r="D66" t="str">
-        <v>image/png</v>
+        <v>image/gif</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F66">
-        <v>795</v>
+        <v>34</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="67">
@@ -2297,25 +2303,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://v.imgi.no/3bs5kjfz6y</v>
       </c>
       <c r="C67" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D67" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>8481</v>
       </c>
       <c r="F67">
-        <v>285</v>
+        <v>8099</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.0024663850529999995</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.0032489133534</v>
       </c>
     </row>
     <row r="68">
@@ -2323,19 +2329,19 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
       </c>
       <c r="C68" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D68" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2372,54 +2378,54 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.lillestrom.kommune.no/</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C70" t="str">
-        <v>Document</v>
+        <v>Fetch</v>
       </c>
       <c r="D70" t="str">
-        <v>text/html</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E70">
-        <v>21632</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>72135</v>
+        <v>285</v>
       </c>
       <c r="G70">
-        <v>0.006290866815999999</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0.0082868168448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://policy.app.cookieinformation.com/uc.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C71" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D71" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>12385</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>41113</v>
+        <v>285</v>
       </c>
       <c r="G71">
-        <v>0.0036017190049999993</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0.004744463139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2427,25 +2433,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Regular.woff2</v>
+        <v>https://www.lillestrom.kommune.no/</v>
       </c>
       <c r="C72" t="str">
-        <v>Font</v>
+        <v>Document</v>
       </c>
       <c r="D72" t="str">
-        <v>application/font-woff2</v>
+        <v>text/html</v>
       </c>
       <c r="E72">
-        <v>14390</v>
+        <v>21769</v>
       </c>
       <c r="F72">
-        <v>14044</v>
+        <v>73431</v>
       </c>
       <c r="G72">
-        <v>0.00418479907</v>
+        <v>0.006330708196999999</v>
       </c>
       <c r="H72">
-        <v>0.0055125413460000005</v>
+        <v>0.0083392989966</v>
       </c>
     </row>
     <row r="73">
@@ -2453,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Bold.woff2</v>
+        <v>https://policy.app.cookieinformation.com/uc.js</v>
       </c>
       <c r="C73" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D73" t="str">
-        <v>application/font-woff2</v>
+        <v>text/javascript</v>
       </c>
       <c r="E73">
-        <v>14531</v>
+        <v>12386</v>
       </c>
       <c r="F73">
-        <v>14176</v>
+        <v>41113</v>
       </c>
       <c r="G73">
-        <v>0.0042258037029999996</v>
+        <v>0.0036020098179999995</v>
       </c>
       <c r="H73">
-        <v>0.005566555823400001</v>
+        <v>0.0047448462204</v>
       </c>
     </row>
     <row r="74">
@@ -2479,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/PxGrotesk-Regular.woff2</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Regular.woff2</v>
       </c>
       <c r="C74" t="str">
         <v>Font</v>
@@ -2488,16 +2494,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E74">
-        <v>38333</v>
+        <v>14408</v>
       </c>
       <c r="F74">
-        <v>37960</v>
+        <v>14044</v>
       </c>
       <c r="G74">
-        <v>0.011147734728999999</v>
+        <v>0.004190033703999999</v>
       </c>
       <c r="H74">
-        <v>0.0146846593062</v>
+        <v>0.0055194368112</v>
       </c>
     </row>
     <row r="75">
@@ -2505,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-BoldItalic.woff2</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Bold.woff2</v>
       </c>
       <c r="C75" t="str">
         <v>Font</v>
@@ -2514,16 +2520,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E75">
-        <v>15411</v>
+        <v>14531</v>
       </c>
       <c r="F75">
-        <v>14836</v>
+        <v>14176</v>
       </c>
       <c r="G75">
-        <v>0.004481719142999999</v>
+        <v>0.0042258037029999996</v>
       </c>
       <c r="H75">
-        <v>0.0059036674554</v>
+        <v>0.005566555823400001</v>
       </c>
     </row>
     <row r="76">
@@ -2531,25 +2537,25 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?1a9c0af2-3e6a-a070-2ff2-da62a653f7e8</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/PxGrotesk-Regular.woff2</v>
       </c>
       <c r="C76" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D76" t="str">
-        <v>text/css</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E76">
-        <v>69464</v>
+        <v>38553</v>
       </c>
       <c r="F76">
-        <v>633489</v>
+        <v>37960</v>
       </c>
       <c r="G76">
-        <v>0.020201034232</v>
+        <v>0.011211713588999998</v>
       </c>
       <c r="H76">
-        <v>0.0266103663696</v>
+        <v>0.0147689372142</v>
       </c>
     </row>
     <row r="77">
@@ -2557,25 +2563,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.lillestrom.kommune.no/css/site.css</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-BoldItalic.woff2</v>
       </c>
       <c r="C77" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D77" t="str">
-        <v>text/css</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E77">
-        <v>1926</v>
+        <v>15191</v>
       </c>
       <c r="F77">
-        <v>4207</v>
+        <v>14836</v>
       </c>
       <c r="G77">
-        <v>0.0005601058379999999</v>
+        <v>0.004417740282999999</v>
       </c>
       <c r="H77">
-        <v>0.0007378147764000001</v>
+        <v>0.005819389547400001</v>
       </c>
     </row>
     <row r="78">
@@ -2583,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://customer.cludo.com/css/templates/v2.1/essentials/cludo-search.min.css</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
       </c>
       <c r="C78" t="str">
         <v>Stylesheet</v>
@@ -2592,16 +2598,16 @@
         <v>text/css</v>
       </c>
       <c r="E78">
-        <v>1413</v>
+        <v>69437</v>
       </c>
       <c r="F78">
-        <v>5820</v>
+        <v>633465</v>
       </c>
       <c r="G78">
-        <v>0.00041091876899999993</v>
+        <v>0.020193182280999998</v>
       </c>
       <c r="H78">
-        <v>0.0005412940182000001</v>
+        <v>0.026600023171800005</v>
       </c>
     </row>
     <row r="79">
@@ -2609,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?1a9c0af2-3e6a-a070-2ff2-da62a653f7e8</v>
+        <v>https://www.lillestrom.kommune.no/css/site.css</v>
       </c>
       <c r="C79" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D79" t="str">
-        <v>application/x-javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E79">
-        <v>6923</v>
+        <v>1926</v>
       </c>
       <c r="F79">
-        <v>17805</v>
+        <v>4207</v>
       </c>
       <c r="G79">
-        <v>0.0020132983989999994</v>
+        <v>0.0005601058379999999</v>
       </c>
       <c r="H79">
-        <v>0.0026520725322</v>
+        <v>0.0007378147764000001</v>
       </c>
     </row>
     <row r="80">
@@ -2635,25 +2641,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
+        <v>https://customer.cludo.com/css/templates/v2.1/essentials/cludo-search.min.css</v>
       </c>
       <c r="C80" t="str">
-        <v>XHR</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D80" t="str">
-        <v>application/json</v>
+        <v>text/css</v>
       </c>
       <c r="E80">
-        <v>3060</v>
+        <v>1412</v>
       </c>
       <c r="F80">
-        <v>2686</v>
+        <v>5820</v>
       </c>
       <c r="G80">
-        <v>0.0008898877799999999</v>
+        <v>0.0004106279559999999</v>
       </c>
       <c r="H80">
-        <v>0.0011722290840000002</v>
+        <v>0.0005409109368000001</v>
       </c>
     </row>
     <row r="81">
@@ -2661,25 +2667,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
       </c>
       <c r="C81" t="str">
-        <v>Document</v>
+        <v>Script</v>
       </c>
       <c r="D81" t="str">
-        <v>text/html</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E81">
-        <v>3010</v>
+        <v>6923</v>
       </c>
       <c r="F81">
-        <v>8796</v>
+        <v>17805</v>
       </c>
       <c r="G81">
-        <v>0.0008753471299999999</v>
+        <v>0.0020132983989999994</v>
       </c>
       <c r="H81">
-        <v>0.001153075014</v>
+        <v>0.0026520725322</v>
       </c>
     </row>
     <row r="82">
@@ -2687,25 +2693,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
       </c>
       <c r="C82" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D82" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E82">
-        <v>12198</v>
+        <v>3058</v>
       </c>
       <c r="F82">
-        <v>24603</v>
+        <v>2686</v>
       </c>
       <c r="G82">
-        <v>0.0035473369739999995</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H82">
-        <v>0.0046728269172000006</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="83">
@@ -2713,25 +2719,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C83" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D83" t="str">
-        <v>application/x-javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E83">
-        <v>533</v>
+        <v>3009</v>
       </c>
       <c r="F83">
-        <v>69</v>
+        <v>8796</v>
       </c>
       <c r="G83">
-        <v>0.00015500332899999998</v>
+        <v>0.0008750563169999999</v>
       </c>
       <c r="H83">
-        <v>0.00020418238620000006</v>
+        <v>0.0011526919326</v>
       </c>
     </row>
     <row r="84">
@@ -2739,25 +2745,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
       </c>
       <c r="C84" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D84" t="str">
-        <v>image/webp</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E84">
-        <v>140474</v>
+        <v>12207</v>
       </c>
       <c r="F84">
-        <v>140088</v>
+        <v>24603</v>
       </c>
       <c r="G84">
-        <v>0.040851665361999995</v>
+        <v>0.0035499542909999994</v>
       </c>
       <c r="H84">
-        <v>0.0538129765836</v>
+        <v>0.004676274649800001</v>
       </c>
     </row>
     <row r="85">
@@ -2765,25 +2771,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
       </c>
       <c r="C85" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D85" t="str">
-        <v>image/webp</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E85">
-        <v>39583</v>
+        <v>533</v>
       </c>
       <c r="F85">
-        <v>39132</v>
+        <v>69</v>
       </c>
       <c r="G85">
-        <v>0.011511250978999998</v>
+        <v>0.00015500332899999998</v>
       </c>
       <c r="H85">
-        <v>0.015163511056200002</v>
+        <v>0.00020418238620000006</v>
       </c>
     </row>
     <row r="86">
@@ -2791,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2800,16 +2806,16 @@
         <v>image/webp</v>
       </c>
       <c r="E86">
-        <v>53211</v>
+        <v>53221</v>
       </c>
       <c r="F86">
-        <v>52760</v>
+        <v>52770</v>
       </c>
       <c r="G86">
-        <v>0.015474450542999998</v>
+        <v>0.015477358672999998</v>
       </c>
       <c r="H86">
-        <v>0.020384144375400003</v>
+        <v>0.0203879751894</v>
       </c>
     </row>
     <row r="87">
@@ -2817,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
@@ -2840,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ordforer_kjartan_berland9699.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
       </c>
       <c r="C88" t="str">
         <v>Image</v>
@@ -2849,16 +2855,16 @@
         <v>image/webp</v>
       </c>
       <c r="E88">
-        <v>28321</v>
+        <v>98074</v>
       </c>
       <c r="F88">
-        <v>27870</v>
+        <v>137108</v>
       </c>
       <c r="G88">
-        <v>0.008236114972999998</v>
+        <v>0.028521194161999996</v>
       </c>
       <c r="H88">
-        <v>0.010849248329400001</v>
+        <v>0.0375703252236</v>
       </c>
     </row>
     <row r="89">
@@ -2866,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/foto_-humle-pa-rodknapp.-la-humla-suse.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
       </c>
       <c r="C89" t="str">
         <v>Image</v>
@@ -2875,16 +2881,16 @@
         <v>image/webp</v>
       </c>
       <c r="E89">
-        <v>56879</v>
+        <v>39583</v>
       </c>
       <c r="F89">
-        <v>56428</v>
+        <v>39132</v>
       </c>
       <c r="G89">
-        <v>0.016541152626999997</v>
+        <v>0.011511250978999998</v>
       </c>
       <c r="H89">
-        <v>0.0217892869506</v>
+        <v>0.015163511056200002</v>
       </c>
     </row>
     <row r="90">
@@ -2892,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
       </c>
       <c r="C90" t="str">
         <v>Image</v>
@@ -2901,16 +2907,16 @@
         <v>image/webp</v>
       </c>
       <c r="E90">
-        <v>38325</v>
+        <v>23652</v>
       </c>
       <c r="F90">
-        <v>37874</v>
+        <v>54802</v>
       </c>
       <c r="G90">
-        <v>0.011145408224999999</v>
+        <v>0.006878309075999999</v>
       </c>
       <c r="H90">
-        <v>0.014681594655000001</v>
+        <v>0.009060641272799999</v>
       </c>
     </row>
     <row r="91">
@@ -2918,22 +2924,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
       </c>
       <c r="C91" t="str">
         <v>Image</v>
       </c>
       <c r="D91" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>38325</v>
+      </c>
+      <c r="F91">
+        <v>37874</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.011145408224999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.014681594655000001</v>
       </c>
     </row>
     <row r="92">
@@ -2941,22 +2950,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/doktorgarden.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
       </c>
       <c r="C92" t="str">
         <v>Image</v>
       </c>
       <c r="D92" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>47304</v>
+      </c>
+      <c r="F92">
+        <v>97072</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.013756618151999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.018121282545599998</v>
       </c>
     </row>
     <row r="93">
@@ -2964,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
       </c>
       <c r="C93" t="str">
         <v>Image</v>
@@ -2973,16 +2985,16 @@
         <v>image/webp</v>
       </c>
       <c r="E93">
-        <v>54031</v>
+        <v>43315</v>
       </c>
       <c r="F93">
-        <v>53580</v>
+        <v>42864</v>
       </c>
       <c r="G93">
-        <v>0.015712917203</v>
+        <v>0.012596565094999998</v>
       </c>
       <c r="H93">
-        <v>0.0206982711234</v>
+        <v>0.016593170841000003</v>
       </c>
     </row>
     <row r="94">
@@ -2990,22 +3002,25 @@
         <v>2</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
       </c>
       <c r="C94" t="str">
         <v>Image</v>
       </c>
       <c r="D94" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>53211</v>
+      </c>
+      <c r="F94">
+        <v>52760</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.015474450542999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>0.020384144375400003</v>
       </c>
     </row>
     <row r="95">
@@ -3013,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
       </c>
       <c r="C95" t="str">
         <v>Image</v>
@@ -3036,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kommunestyremote_2025-5.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
       </c>
       <c r="C96" t="str">
         <v>Image</v>
@@ -3059,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/hvamkart.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
       </c>
       <c r="C97" t="str">
         <v>Image</v>
@@ -3082,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
       </c>
       <c r="C98" t="str">
         <v>Image</v>
@@ -3105,25 +3120,22 @@
         <v>2</v>
       </c>
       <c r="B99" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?1a9c0af2-3e6a-a070-2ff2-da62a653f7e8</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
       </c>
       <c r="C99" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D99" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E99">
-        <v>9741</v>
-      </c>
-      <c r="F99">
-        <v>25748</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.002832809433</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.0037315959174000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3131,25 +3143,22 @@
         <v>2</v>
       </c>
       <c r="B100" t="str">
-        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
       </c>
       <c r="C100" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D100" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E100">
-        <v>47065</v>
-      </c>
-      <c r="F100">
-        <v>237111</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.013687113845</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0.018029726091000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3157,25 +3166,22 @@
         <v>2</v>
       </c>
       <c r="B101" t="str">
-        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
       </c>
       <c r="C101" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D101" t="str">
-        <v>text/javascript</v>
+        <v/>
       </c>
       <c r="E101">
-        <v>112115</v>
-      </c>
-      <c r="F101">
-        <v>457048</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.032604499494999994</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0.042949171161000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3183,25 +3189,22 @@
         <v>2</v>
       </c>
       <c r="B102" t="str">
-        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
       </c>
       <c r="C102" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D102" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E102">
-        <v>5750</v>
-      </c>
-      <c r="F102">
-        <v>17044</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.0016721747499999998</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0.0022027180500000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3209,25 +3212,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
       </c>
       <c r="C103" t="str">
         <v>Script</v>
       </c>
       <c r="D103" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E103">
-        <v>15447</v>
+        <v>9741</v>
       </c>
       <c r="F103">
-        <v>51946</v>
+        <v>25748</v>
       </c>
       <c r="G103">
-        <v>0.004492188410999999</v>
+        <v>0.002832809433</v>
       </c>
       <c r="H103">
-        <v>0.005917458385800001</v>
+        <v>0.0037315959174000005</v>
       </c>
     </row>
     <row r="104">
@@ -3235,25 +3238,25 @@
         <v>2</v>
       </c>
       <c r="B104" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
+        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
       </c>
       <c r="C104" t="str">
         <v>Script</v>
       </c>
       <c r="D104" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E104">
-        <v>2335</v>
+        <v>47202</v>
       </c>
       <c r="F104">
-        <v>4490</v>
+        <v>237111</v>
       </c>
       <c r="G104">
-        <v>0.0006790483549999999</v>
+        <v>0.013726955225999999</v>
       </c>
       <c r="H104">
-        <v>0.0008944950690000001</v>
+        <v>0.0180822082428</v>
       </c>
     </row>
     <row r="105">
@@ -3261,25 +3264,25 @@
         <v>2</v>
       </c>
       <c r="B105" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
+        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
       </c>
       <c r="C105" t="str">
         <v>Script</v>
       </c>
       <c r="D105" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E105">
-        <v>1215</v>
+        <v>112062</v>
       </c>
       <c r="F105">
-        <v>1132</v>
+        <v>457048</v>
       </c>
       <c r="G105">
-        <v>0.000353337795</v>
+        <v>0.032589086405999994</v>
       </c>
       <c r="H105">
-        <v>0.0004654439010000001</v>
+        <v>0.0429288678468</v>
       </c>
     </row>
     <row r="106">
@@ -3287,25 +3290,25 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
+        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
       </c>
       <c r="C106" t="str">
         <v>Script</v>
       </c>
       <c r="D106" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E106">
-        <v>1030</v>
+        <v>5750</v>
       </c>
       <c r="F106">
-        <v>891</v>
+        <v>17044</v>
       </c>
       <c r="G106">
-        <v>0.0002995373899999999</v>
+        <v>0.0016721747499999998</v>
       </c>
       <c r="H106">
-        <v>0.00039457384200000006</v>
+        <v>0.0022027180500000004</v>
       </c>
     </row>
     <row r="107">
@@ -3313,25 +3316,25 @@
         <v>2</v>
       </c>
       <c r="B107" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
       </c>
       <c r="D107" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>2312</v>
+        <v>15447</v>
       </c>
       <c r="F107">
-        <v>3896</v>
+        <v>52154</v>
       </c>
       <c r="G107">
-        <v>0.000672359656</v>
+        <v>0.004492188410999999</v>
       </c>
       <c r="H107">
-        <v>0.0008856841968000002</v>
+        <v>0.005917458385800001</v>
       </c>
     </row>
     <row r="108">
@@ -3339,25 +3342,25 @@
         <v>2</v>
       </c>
       <c r="B108" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
       </c>
       <c r="C108" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D108" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E108">
-        <v>1322</v>
+        <v>2335</v>
       </c>
       <c r="F108">
-        <v>2080</v>
+        <v>4490</v>
       </c>
       <c r="G108">
-        <v>0.00038445478599999995</v>
+        <v>0.0006790483549999999</v>
       </c>
       <c r="H108">
-        <v>0.0005064336108</v>
+        <v>0.0008944950690000001</v>
       </c>
     </row>
     <row r="109">
@@ -3365,25 +3368,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
       </c>
       <c r="C109" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D109" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E109">
-        <v>1185</v>
+        <v>1215</v>
       </c>
       <c r="F109">
-        <v>1611</v>
+        <v>1132</v>
       </c>
       <c r="G109">
-        <v>0.0003446134049999999</v>
+        <v>0.000353337795</v>
       </c>
       <c r="H109">
-        <v>0.0004539514590000001</v>
+        <v>0.0004654439010000001</v>
       </c>
     </row>
     <row r="110">
@@ -3391,25 +3394,25 @@
         <v>2</v>
       </c>
       <c r="B110" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
       </c>
       <c r="C110" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D110" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E110">
-        <v>1193</v>
+        <v>1030</v>
       </c>
       <c r="F110">
-        <v>1651</v>
+        <v>891</v>
       </c>
       <c r="G110">
-        <v>0.000346939909</v>
+        <v>0.0002995373899999999</v>
       </c>
       <c r="H110">
-        <v>0.00045701611020000003</v>
+        <v>0.00039457384200000006</v>
       </c>
     </row>
     <row r="111">
@@ -3417,25 +3420,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
       </c>
       <c r="C111" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D111" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E111">
-        <v>2316</v>
+        <v>2303</v>
       </c>
       <c r="F111">
-        <v>4655</v>
+        <v>3896</v>
       </c>
       <c r="G111">
-        <v>0.0006735229079999999</v>
+        <v>0.0006697423389999999</v>
       </c>
       <c r="H111">
-        <v>0.0008872165224000001</v>
+        <v>0.0008822364642000001</v>
       </c>
     </row>
     <row r="112">
@@ -3443,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
       </c>
       <c r="C112" t="str">
         <v>Image</v>
@@ -3452,16 +3455,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E112">
-        <v>840</v>
+        <v>1259</v>
       </c>
       <c r="F112">
-        <v>921</v>
+        <v>2080</v>
       </c>
       <c r="G112">
-        <v>0.00024428291999999997</v>
+        <v>0.00036613356699999994</v>
       </c>
       <c r="H112">
-        <v>0.00032178837600000006</v>
+        <v>0.00048229948260000005</v>
       </c>
     </row>
     <row r="113">
@@ -3469,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
       </c>
       <c r="C113" t="str">
         <v>Image</v>
@@ -3478,16 +3481,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E113">
-        <v>1568</v>
+        <v>1257</v>
       </c>
       <c r="F113">
-        <v>4246</v>
+        <v>1611</v>
       </c>
       <c r="G113">
-        <v>0.00045599478399999994</v>
+        <v>0.00036555194099999996</v>
       </c>
       <c r="H113">
-        <v>0.0006006716352000001</v>
+        <v>0.0004815333198000001</v>
       </c>
     </row>
     <row r="114">
@@ -3495,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
       </c>
       <c r="C114" t="str">
         <v>Image</v>
@@ -3504,16 +3507,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E114">
-        <v>1122</v>
+        <v>1202</v>
       </c>
       <c r="F114">
-        <v>1464</v>
+        <v>1651</v>
       </c>
       <c r="G114">
-        <v>0.00032629218599999996</v>
+        <v>0.000349557226</v>
       </c>
       <c r="H114">
-        <v>0.00042981733080000006</v>
+        <v>0.0004604638428000001</v>
       </c>
     </row>
     <row r="115">
@@ -3521,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
       </c>
       <c r="C115" t="str">
         <v>Image</v>
@@ -3530,16 +3533,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E115">
-        <v>1119</v>
+        <v>2307</v>
       </c>
       <c r="F115">
-        <v>1426</v>
+        <v>4655</v>
       </c>
       <c r="G115">
-        <v>0.00032541974699999997</v>
+        <v>0.0006709055909999999</v>
       </c>
       <c r="H115">
-        <v>0.0004286680866</v>
+        <v>0.0008837687898000001</v>
       </c>
     </row>
     <row r="116">
@@ -3547,7 +3550,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3556,16 +3559,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E116">
-        <v>1457</v>
+        <v>840</v>
       </c>
       <c r="F116">
-        <v>3019</v>
+        <v>921</v>
       </c>
       <c r="G116">
-        <v>0.00042371454099999995</v>
+        <v>0.00024428291999999997</v>
       </c>
       <c r="H116">
-        <v>0.0005581495998</v>
+        <v>0.00032178837600000006</v>
       </c>
     </row>
     <row r="117">
@@ -3573,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
@@ -3582,16 +3585,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E117">
-        <v>1401</v>
+        <v>1559</v>
       </c>
       <c r="F117">
-        <v>2810</v>
+        <v>4246</v>
       </c>
       <c r="G117">
-        <v>0.00040742901299999995</v>
+        <v>0.00045337746699999996</v>
       </c>
       <c r="H117">
-        <v>0.0005366970414</v>
+        <v>0.0005972239026000001</v>
       </c>
     </row>
     <row r="118">
@@ -3599,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
       </c>
       <c r="C118" t="str">
         <v>Image</v>
@@ -3608,16 +3611,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E118">
-        <v>949</v>
+        <v>1122</v>
       </c>
       <c r="F118">
-        <v>1189</v>
+        <v>1464</v>
       </c>
       <c r="G118">
-        <v>0.0002759815369999999</v>
+        <v>0.00032629218599999996</v>
       </c>
       <c r="H118">
-        <v>0.0003635442486</v>
+        <v>0.00042981733080000006</v>
       </c>
     </row>
     <row r="119">
@@ -3625,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
       </c>
       <c r="C119" t="str">
         <v>Image</v>
@@ -3634,16 +3637,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E119">
-        <v>1393</v>
+        <v>1119</v>
       </c>
       <c r="F119">
-        <v>3816</v>
+        <v>1426</v>
       </c>
       <c r="G119">
-        <v>0.000405102509</v>
+        <v>0.00032541974699999997</v>
       </c>
       <c r="H119">
-        <v>0.0005336323901999999</v>
+        <v>0.0004286680866</v>
       </c>
     </row>
     <row r="120">
@@ -3651,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
       </c>
       <c r="C120" t="str">
         <v>Image</v>
@@ -3660,16 +3663,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E120">
-        <v>1163</v>
+        <v>1457</v>
       </c>
       <c r="F120">
-        <v>1577</v>
+        <v>3019</v>
       </c>
       <c r="G120">
-        <v>0.00033821551899999993</v>
+        <v>0.00042371454099999995</v>
       </c>
       <c r="H120">
-        <v>0.00044552366819999997</v>
+        <v>0.0005581495998</v>
       </c>
     </row>
     <row r="121">
@@ -3677,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
       </c>
       <c r="C121" t="str">
         <v>Image</v>
@@ -3686,16 +3689,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E121">
-        <v>1813</v>
+        <v>1401</v>
       </c>
       <c r="F121">
-        <v>3511</v>
+        <v>2810</v>
       </c>
       <c r="G121">
-        <v>0.000527243969</v>
+        <v>0.00040742901299999995</v>
       </c>
       <c r="H121">
-        <v>0.0006945265782000001</v>
+        <v>0.0005366970414</v>
       </c>
     </row>
     <row r="122">
@@ -3703,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
       </c>
       <c r="C122" t="str">
         <v>Image</v>
@@ -3712,16 +3715,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E122">
-        <v>1059</v>
+        <v>949</v>
       </c>
       <c r="F122">
-        <v>1362</v>
+        <v>1189</v>
       </c>
       <c r="G122">
-        <v>0.00030797096699999995</v>
+        <v>0.0002759815369999999</v>
       </c>
       <c r="H122">
-        <v>0.00040568320260000003</v>
+        <v>0.0003635442486</v>
       </c>
     </row>
     <row r="123">
@@ -3729,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
       </c>
       <c r="C123" t="str">
         <v>Image</v>
@@ -3738,16 +3741,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E123">
-        <v>517</v>
+        <v>1393</v>
       </c>
       <c r="F123">
-        <v>655</v>
+        <v>3816</v>
       </c>
       <c r="G123">
-        <v>0.000150350321</v>
+        <v>0.000405102509</v>
       </c>
       <c r="H123">
-        <v>0.00019805308380000002</v>
+        <v>0.0005336323901999999</v>
       </c>
     </row>
     <row r="124">
@@ -3755,22 +3758,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
       </c>
       <c r="C124" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D124" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1163</v>
+      </c>
+      <c r="F124">
+        <v>1577</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.00033821551899999993</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>0.00044552366819999997</v>
       </c>
     </row>
     <row r="125">
@@ -3778,25 +3784,25 @@
         <v>2</v>
       </c>
       <c r="B125" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
       </c>
       <c r="C125" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D125" t="str">
-        <v>text/plain</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E125">
-        <v>122</v>
+        <v>1813</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>3511</v>
       </c>
       <c r="G125">
-        <v>0.00003547918599999999</v>
+        <v>0.000527243969</v>
       </c>
       <c r="H125">
-        <v>0.00004673593080000001</v>
+        <v>0.0006945265782000001</v>
       </c>
     </row>
     <row r="126">
@@ -3804,25 +3810,25 @@
         <v>2</v>
       </c>
       <c r="B126" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
       </c>
       <c r="C126" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D126" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E126">
-        <v>15034</v>
+        <v>1059</v>
       </c>
       <c r="F126">
-        <v>277097</v>
+        <v>1362</v>
       </c>
       <c r="G126">
-        <v>0.004372082641999999</v>
+        <v>0.00030797096699999995</v>
       </c>
       <c r="H126">
-        <v>0.0057592457676</v>
+        <v>0.00040568320260000003</v>
       </c>
     </row>
     <row r="127">
@@ -3830,25 +3836,25 @@
         <v>2</v>
       </c>
       <c r="B127" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C127" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D127" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E127">
-        <v>4015</v>
+        <v>517</v>
       </c>
       <c r="F127">
-        <v>11785</v>
+        <v>655</v>
       </c>
       <c r="G127">
-        <v>0.0011676141949999998</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H127">
-        <v>0.001538071821</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="128">
@@ -3856,25 +3862,22 @@
         <v>2</v>
       </c>
       <c r="B128" t="str">
-        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C128" t="str">
-        <v>Image</v>
+        <v>Preflight</v>
       </c>
       <c r="D128" t="str">
-        <v>image/svg+xml</v>
+        <v>application/json</v>
       </c>
       <c r="E128">
-        <v>517</v>
-      </c>
-      <c r="F128">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.000150350321</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0.00019805308380000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3882,25 +3885,25 @@
         <v>2</v>
       </c>
       <c r="B129" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C129" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D129" t="str">
-        <v>image/svg+xml</v>
+        <v>text/plain</v>
       </c>
       <c r="E129">
-        <v>681</v>
+        <v>122</v>
       </c>
       <c r="F129">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>0.00019804365299999995</v>
+        <v>0.00003547918599999999</v>
       </c>
       <c r="H129">
-        <v>0.00026087843340000006</v>
+        <v>0.00004673593080000001</v>
       </c>
     </row>
     <row r="130">
@@ -3908,25 +3911,25 @@
         <v>2</v>
       </c>
       <c r="B130" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
       </c>
       <c r="C130" t="str">
-        <v>Fetch</v>
+        <v>Script</v>
       </c>
       <c r="D130" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>15034</v>
       </c>
       <c r="F130">
-        <v>285</v>
+        <v>277097</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.004372082641999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>0.0057592457676</v>
       </c>
     </row>
     <row r="131">
@@ -3960,25 +3963,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=347&amp;prev=4206300a-e922-50e1-21a4-07ba7cea6561&amp;luid=2a5e7fdf-ec20-d3f5-fca4-35f25a388c23&amp;rnd=79036</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
       </c>
       <c r="C132" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D132" t="str">
-        <v>image/gif</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E132">
-        <v>210</v>
+        <v>4015</v>
       </c>
       <c r="F132">
-        <v>34</v>
+        <v>11785</v>
       </c>
       <c r="G132">
-        <v>0.00006107072999999999</v>
+        <v>0.0011676141949999998</v>
       </c>
       <c r="H132">
-        <v>0.00008044709400000001</v>
+        <v>0.001538071821</v>
       </c>
     </row>
     <row r="133">
@@ -3986,25 +3989,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="str">
-        <v>https://v.imgi.no/3bs5kjfz6y</v>
+        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C133" t="str">
         <v>Image</v>
       </c>
       <c r="D133" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E133">
-        <v>8481</v>
+        <v>517</v>
       </c>
       <c r="F133">
-        <v>8099</v>
+        <v>655</v>
       </c>
       <c r="G133">
-        <v>0.0024663850529999995</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H133">
-        <v>0.0032489133534</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="134">
@@ -4012,25 +4015,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C134" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D134" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="F134">
-        <v>795</v>
+        <v>285</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="135">
@@ -4038,25 +4041,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C135" t="str">
-        <v>Other</v>
+        <v>Fetch</v>
       </c>
       <c r="D135" t="str">
-        <v>image/x-icon</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E135">
-        <v>15476</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>15086</v>
+        <v>285</v>
       </c>
       <c r="G135">
-        <v>0.004500621987999999</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.0059285677464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4064,25 +4067,25 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://v.imgi.no/3bs5kjfz6y</v>
       </c>
       <c r="C136" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D136" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>8480</v>
       </c>
       <c r="F136">
-        <v>285</v>
+        <v>8099</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.0024660942399999997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>0.0032485302719999997</v>
       </c>
     </row>
     <row r="137">
@@ -4090,129 +4093,129 @@
         <v>2</v>
       </c>
       <c r="B137" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
       </c>
       <c r="C137" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D137" t="str">
-        <v>image/svg+xml</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>15476</v>
       </c>
       <c r="F137">
-        <v>285</v>
+        <v>15086</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>0.004500621987999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>0.0059285677464</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.lillestrom.kommune.no/</v>
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=477&amp;prev=8bd4b383-b547-42c6-6206-11ccc2bc1e2c&amp;luid=6e40b883-9d01-d7f9-9343-a7bd11ed4cfe&amp;rnd=65608</v>
       </c>
       <c r="C138" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D138" t="str">
-        <v>text/html</v>
+        <v>image/gif</v>
       </c>
       <c r="E138">
-        <v>21631</v>
+        <v>210</v>
       </c>
       <c r="F138">
-        <v>72135</v>
+        <v>34</v>
       </c>
       <c r="G138">
-        <v>0.006290576002999999</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H138">
-        <v>0.0082864337634</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" t="str">
-        <v>https://policy.app.cookieinformation.com/uc.js</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
       </c>
       <c r="C139" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D139" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E139">
-        <v>12385</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>41113</v>
+        <v>795</v>
       </c>
       <c r="G139">
-        <v>0.0036017190049999993</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.004744463139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Regular.woff2</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C140" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D140" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E140">
-        <v>14619</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>14044</v>
+        <v>285</v>
       </c>
       <c r="G140">
-        <v>0.004251395246999999</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0.0056002669866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B141" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Bold.woff2</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C141" t="str">
-        <v>Font</v>
+        <v>Fetch</v>
       </c>
       <c r="D141" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E141">
-        <v>14522</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>14176</v>
+        <v>285</v>
       </c>
       <c r="G141">
-        <v>0.004223186386</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.0055631080908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4220,25 +4223,25 @@
         <v>3</v>
       </c>
       <c r="B142" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/PxGrotesk-Regular.woff2</v>
+        <v>https://www.lillestrom.kommune.no/</v>
       </c>
       <c r="C142" t="str">
-        <v>Font</v>
+        <v>Document</v>
       </c>
       <c r="D142" t="str">
-        <v>application/font-woff2</v>
+        <v>text/html</v>
       </c>
       <c r="E142">
-        <v>38333</v>
+        <v>21769</v>
       </c>
       <c r="F142">
-        <v>37960</v>
+        <v>73431</v>
       </c>
       <c r="G142">
-        <v>0.011147734728999999</v>
+        <v>0.006330708196999999</v>
       </c>
       <c r="H142">
-        <v>0.0146846593062</v>
+        <v>0.0083392989966</v>
       </c>
     </row>
     <row r="143">
@@ -4246,25 +4249,25 @@
         <v>3</v>
       </c>
       <c r="B143" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-BoldItalic.woff2</v>
+        <v>https://policy.app.cookieinformation.com/uc.js</v>
       </c>
       <c r="C143" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D143" t="str">
-        <v>application/font-woff2</v>
+        <v>text/javascript</v>
       </c>
       <c r="E143">
-        <v>15182</v>
+        <v>12386</v>
       </c>
       <c r="F143">
-        <v>14836</v>
+        <v>41113</v>
       </c>
       <c r="G143">
-        <v>0.004415122965999999</v>
+        <v>0.0036020098179999995</v>
       </c>
       <c r="H143">
-        <v>0.0058159418148</v>
+        <v>0.0047448462204</v>
       </c>
     </row>
     <row r="144">
@@ -4272,25 +4275,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?e347371d-8bf8-a9ff-76a4-f508b3ec9f8e</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Regular.woff2</v>
       </c>
       <c r="C144" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D144" t="str">
-        <v>text/css</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E144">
-        <v>69437</v>
+        <v>14408</v>
       </c>
       <c r="F144">
-        <v>633489</v>
+        <v>14044</v>
       </c>
       <c r="G144">
-        <v>0.020193182280999998</v>
+        <v>0.004190033703999999</v>
       </c>
       <c r="H144">
-        <v>0.026600023171800005</v>
+        <v>0.0055194368112</v>
       </c>
     </row>
     <row r="145">
@@ -4298,25 +4301,25 @@
         <v>3</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.lillestrom.kommune.no/css/site.css</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-Bold.woff2</v>
       </c>
       <c r="C145" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D145" t="str">
-        <v>text/css</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E145">
-        <v>1926</v>
+        <v>14540</v>
       </c>
       <c r="F145">
-        <v>4207</v>
+        <v>14176</v>
       </c>
       <c r="G145">
-        <v>0.0005601058379999999</v>
+        <v>0.0042284210199999995</v>
       </c>
       <c r="H145">
-        <v>0.0007378147764000001</v>
+        <v>0.005570003556000001</v>
       </c>
     </row>
     <row r="146">
@@ -4324,25 +4327,25 @@
         <v>3</v>
       </c>
       <c r="B146" t="str">
-        <v>https://customer.cludo.com/css/templates/v2.1/essentials/cludo-search.min.css</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/PxGrotesk-Regular.woff2</v>
       </c>
       <c r="C146" t="str">
-        <v>Stylesheet</v>
+        <v>Font</v>
       </c>
       <c r="D146" t="str">
-        <v>text/css</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E146">
-        <v>1414</v>
+        <v>38324</v>
       </c>
       <c r="F146">
-        <v>5820</v>
+        <v>37960</v>
       </c>
       <c r="G146">
-        <v>0.00041120958199999995</v>
+        <v>0.011145117411999998</v>
       </c>
       <c r="H146">
-        <v>0.0005416770996000001</v>
+        <v>0.014681211573600002</v>
       </c>
     </row>
     <row r="147">
@@ -4350,25 +4353,25 @@
         <v>3</v>
       </c>
       <c r="B147" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?e347371d-8bf8-a9ff-76a4-f508b3ec9f8e</v>
+        <v>https://design.lillestrom.kommune.no/assets/fonts/Lato-BoldItalic.woff2</v>
       </c>
       <c r="C147" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D147" t="str">
-        <v>application/x-javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E147">
-        <v>6923</v>
+        <v>15429</v>
       </c>
       <c r="F147">
-        <v>17805</v>
+        <v>14836</v>
       </c>
       <c r="G147">
-        <v>0.0020132983989999994</v>
+        <v>0.004486953776999999</v>
       </c>
       <c r="H147">
-        <v>0.0026520725322</v>
+        <v>0.005910562920600001</v>
       </c>
     </row>
     <row r="148">
@@ -4376,25 +4379,25 @@
         <v>3</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
       </c>
       <c r="C148" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D148" t="str">
-        <v>image/webp</v>
+        <v>text/css</v>
       </c>
       <c r="E148">
-        <v>140474</v>
+        <v>69446</v>
       </c>
       <c r="F148">
-        <v>140088</v>
+        <v>633465</v>
       </c>
       <c r="G148">
-        <v>0.040851665361999995</v>
+        <v>0.020195799597999997</v>
       </c>
       <c r="H148">
-        <v>0.0538129765836</v>
+        <v>0.026603470904400003</v>
       </c>
     </row>
     <row r="149">
@@ -4402,25 +4405,25 @@
         <v>3</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
+        <v>https://www.lillestrom.kommune.no/css/site.css</v>
       </c>
       <c r="C149" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D149" t="str">
-        <v>image/webp</v>
+        <v>text/css</v>
       </c>
       <c r="E149">
-        <v>39583</v>
+        <v>1926</v>
       </c>
       <c r="F149">
-        <v>39132</v>
+        <v>4207</v>
       </c>
       <c r="G149">
-        <v>0.011511250978999998</v>
+        <v>0.0005601058379999999</v>
       </c>
       <c r="H149">
-        <v>0.015163511056200002</v>
+        <v>0.0007378147764000001</v>
       </c>
     </row>
     <row r="150">
@@ -4428,25 +4431,25 @@
         <v>3</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
+        <v>https://customer.cludo.com/css/templates/v2.1/essentials/cludo-search.min.css</v>
       </c>
       <c r="C150" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D150" t="str">
-        <v>image/webp</v>
+        <v>text/css</v>
       </c>
       <c r="E150">
-        <v>53211</v>
+        <v>1412</v>
       </c>
       <c r="F150">
-        <v>52760</v>
+        <v>5820</v>
       </c>
       <c r="G150">
-        <v>0.015474450542999998</v>
+        <v>0.0004106279559999999</v>
       </c>
       <c r="H150">
-        <v>0.020384144375400003</v>
+        <v>0.0005409109368000001</v>
       </c>
     </row>
     <row r="151">
@@ -4454,22 +4457,25 @@
         <v>3</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
       </c>
       <c r="C151" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D151" t="str">
-        <v/>
+        <v>application/x-javascript</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>6932</v>
+      </c>
+      <c r="F151">
+        <v>17805</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.0020159157159999994</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>0.0026555202648000003</v>
       </c>
     </row>
     <row r="152">
@@ -4477,25 +4483,25 @@
         <v>3</v>
       </c>
       <c r="B152" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ordforer_kjartan_berland9699.webp</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
       </c>
       <c r="C152" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D152" t="str">
-        <v>image/webp</v>
+        <v>application/json</v>
       </c>
       <c r="E152">
-        <v>28321</v>
+        <v>3058</v>
       </c>
       <c r="F152">
-        <v>27870</v>
+        <v>2686</v>
       </c>
       <c r="G152">
-        <v>0.008236114972999998</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H152">
-        <v>0.010849248329400001</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="153">
@@ -4503,25 +4509,25 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/foto_-humle-pa-rodknapp.-la-humla-suse.webp</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C153" t="str">
-        <v>Image</v>
+        <v>Document</v>
       </c>
       <c r="D153" t="str">
-        <v>image/webp</v>
+        <v>text/html</v>
       </c>
       <c r="E153">
-        <v>56879</v>
+        <v>3010</v>
       </c>
       <c r="F153">
-        <v>56428</v>
+        <v>8796</v>
       </c>
       <c r="G153">
-        <v>0.016541152626999997</v>
+        <v>0.0008753471299999999</v>
       </c>
       <c r="H153">
-        <v>0.0217892869506</v>
+        <v>0.001153075014</v>
       </c>
     </row>
     <row r="154">
@@ -4529,25 +4535,25 @@
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
       </c>
       <c r="C154" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D154" t="str">
-        <v>image/webp</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E154">
-        <v>38325</v>
+        <v>12198</v>
       </c>
       <c r="F154">
-        <v>37874</v>
+        <v>24603</v>
       </c>
       <c r="G154">
-        <v>0.011145408224999999</v>
+        <v>0.0035473369739999995</v>
       </c>
       <c r="H154">
-        <v>0.014681594655000001</v>
+        <v>0.0046728269172000006</v>
       </c>
     </row>
     <row r="155">
@@ -4555,25 +4561,25 @@
         <v>3</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
       </c>
       <c r="C155" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D155" t="str">
-        <v>image/webp</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E155">
-        <v>386</v>
+        <v>524</v>
       </c>
       <c r="F155">
-        <v>31150</v>
+        <v>69</v>
       </c>
       <c r="G155">
-        <v>0.00011225381799999998</v>
+        <v>0.000152386012</v>
       </c>
       <c r="H155">
-        <v>0.0001478694204</v>
+        <v>0.00020073465360000002</v>
       </c>
     </row>
     <row r="156">
@@ -4581,22 +4587,25 @@
         <v>3</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/doktorgarden.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
       </c>
       <c r="C156" t="str">
         <v>Image</v>
       </c>
       <c r="D156" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>53221</v>
+      </c>
+      <c r="F156">
+        <v>52770</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>0.015477358672999998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>0.0203879751894</v>
       </c>
     </row>
     <row r="157">
@@ -4604,25 +4613,22 @@
         <v>3</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
       </c>
       <c r="C157" t="str">
         <v>Image</v>
       </c>
       <c r="D157" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E157">
-        <v>54031</v>
-      </c>
-      <c r="F157">
-        <v>53580</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>0.015712917203</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>0.0206982711234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4630,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
       </c>
       <c r="C158" t="str">
         <v>Image</v>
@@ -4653,25 +4659,25 @@
         <v>3</v>
       </c>
       <c r="B159" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.jpg</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
       </c>
       <c r="C159" t="str">
         <v>Image</v>
       </c>
       <c r="D159" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E159">
-        <v>451</v>
+        <v>39583</v>
       </c>
       <c r="F159">
-        <v>3645</v>
+        <v>39132</v>
       </c>
       <c r="G159">
-        <v>0.00013115666299999998</v>
+        <v>0.011511250978999998</v>
       </c>
       <c r="H159">
-        <v>0.00017276971140000002</v>
+        <v>0.015163511056200002</v>
       </c>
     </row>
     <row r="160">
@@ -4679,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kommunestyremote_2025-5.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
       </c>
       <c r="C160" t="str">
         <v>Image</v>
@@ -4702,22 +4708,25 @@
         <v>3</v>
       </c>
       <c r="B161" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/hvamkart.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
       </c>
       <c r="C161" t="str">
         <v>Image</v>
       </c>
       <c r="D161" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>38325</v>
+      </c>
+      <c r="F161">
+        <v>37874</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>0.011145408224999999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>0.014681594655000001</v>
       </c>
     </row>
     <row r="162">
@@ -4725,22 +4734,25 @@
         <v>3</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
       </c>
       <c r="C162" t="str">
         <v>Image</v>
       </c>
       <c r="D162" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>97458</v>
+      </c>
+      <c r="F162">
+        <v>97072</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>0.028342053353999995</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>0.0373343470812</v>
       </c>
     </row>
     <row r="163">
@@ -4748,25 +4760,25 @@
         <v>3</v>
       </c>
       <c r="B163" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?e347371d-8bf8-a9ff-76a4-f508b3ec9f8e</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
       </c>
       <c r="C163" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D163" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E163">
-        <v>9741</v>
+        <v>43315</v>
       </c>
       <c r="F163">
-        <v>25748</v>
+        <v>42864</v>
       </c>
       <c r="G163">
-        <v>0.002832809433</v>
+        <v>0.012596565094999998</v>
       </c>
       <c r="H163">
-        <v>0.0037315959174000005</v>
+        <v>0.016593170841000003</v>
       </c>
     </row>
     <row r="164">
@@ -4774,25 +4786,25 @@
         <v>3</v>
       </c>
       <c r="B164" t="str">
-        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
       </c>
       <c r="C164" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D164" t="str">
-        <v>application/javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E164">
-        <v>47064</v>
+        <v>53211</v>
       </c>
       <c r="F164">
-        <v>237111</v>
+        <v>52760</v>
       </c>
       <c r="G164">
-        <v>0.013686823031999999</v>
+        <v>0.015474450542999998</v>
       </c>
       <c r="H164">
-        <v>0.018029343009599998</v>
+        <v>0.020384144375400003</v>
       </c>
     </row>
     <row r="165">
@@ -4800,25 +4812,22 @@
         <v>3</v>
       </c>
       <c r="B165" t="str">
-        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
       </c>
       <c r="C165" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D165" t="str">
-        <v>text/javascript</v>
+        <v/>
       </c>
       <c r="E165">
-        <v>112124</v>
-      </c>
-      <c r="F165">
-        <v>457048</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>0.032607116811999994</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>0.042952618893600004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4826,25 +4835,22 @@
         <v>3</v>
       </c>
       <c r="B166" t="str">
-        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
       </c>
       <c r="C166" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D166" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E166">
-        <v>5760</v>
-      </c>
-      <c r="F166">
-        <v>17044</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.0016750828799999998</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0.002206548864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4852,25 +4858,22 @@
         <v>3</v>
       </c>
       <c r="B167" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
       </c>
       <c r="C167" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D167" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E167">
-        <v>3061</v>
-      </c>
-      <c r="F167">
-        <v>2686</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0.0008901785929999998</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0.0011726121654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4878,25 +4881,22 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
       </c>
       <c r="C168" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D168" t="str">
-        <v>text/html</v>
+        <v/>
       </c>
       <c r="E168">
-        <v>3011</v>
-      </c>
-      <c r="F168">
-        <v>8796</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0.0008756379429999999</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>0.0011534580954000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4904,25 +4904,22 @@
         <v>3</v>
       </c>
       <c r="B169" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
       </c>
       <c r="C169" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D169" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E169">
-        <v>12198</v>
-      </c>
-      <c r="F169">
-        <v>24603</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>0.0035473369739999995</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>0.0046728269172000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4930,25 +4927,22 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
       </c>
       <c r="C170" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D170" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E170">
-        <v>533</v>
-      </c>
-      <c r="F170">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0.00015500332899999998</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>0.00020418238620000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4956,25 +4950,22 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
       </c>
       <c r="C171" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D171" t="str">
-        <v>application/javascript</v>
+        <v/>
       </c>
       <c r="E171">
-        <v>15436</v>
-      </c>
-      <c r="F171">
-        <v>51946</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>0.0044889894679999995</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>0.005913244490399999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4982,25 +4973,22 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
       </c>
       <c r="C172" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D172" t="str">
-        <v>application/x-javascript</v>
+        <v/>
       </c>
       <c r="E172">
-        <v>2326</v>
-      </c>
-      <c r="F172">
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.0006764310379999999</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>0.0008910473363999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5008,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
       </c>
       <c r="C173" t="str">
         <v>Script</v>
@@ -5017,16 +5005,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E173">
-        <v>1215</v>
+        <v>9771</v>
       </c>
       <c r="F173">
-        <v>1132</v>
+        <v>25748</v>
       </c>
       <c r="G173">
-        <v>0.000353337795</v>
+        <v>0.0028415338229999996</v>
       </c>
       <c r="H173">
-        <v>0.0004654439010000001</v>
+        <v>0.0037430883594000005</v>
       </c>
     </row>
     <row r="174">
@@ -5034,25 +5022,25 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
+        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
       </c>
       <c r="C174" t="str">
         <v>Script</v>
       </c>
       <c r="D174" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E174">
-        <v>1030</v>
+        <v>47190</v>
       </c>
       <c r="F174">
-        <v>891</v>
+        <v>237111</v>
       </c>
       <c r="G174">
-        <v>0.0002995373899999999</v>
+        <v>0.013723465469999998</v>
       </c>
       <c r="H174">
-        <v>0.00039457384200000006</v>
+        <v>0.018077611266000004</v>
       </c>
     </row>
     <row r="175">
@@ -5060,25 +5048,25 @@
         <v>3</v>
       </c>
       <c r="B175" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
+        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
       </c>
       <c r="C175" t="str">
         <v>Script</v>
       </c>
       <c r="D175" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E175">
-        <v>2312</v>
+        <v>112060</v>
       </c>
       <c r="F175">
-        <v>3896</v>
+        <v>457048</v>
       </c>
       <c r="G175">
-        <v>0.000672359656</v>
+        <v>0.03258850477999999</v>
       </c>
       <c r="H175">
-        <v>0.0008856841968000002</v>
+        <v>0.042928101684</v>
       </c>
     </row>
     <row r="176">
@@ -5086,25 +5074,25 @@
         <v>3</v>
       </c>
       <c r="B176" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
+        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
       </c>
       <c r="C176" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D176" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E176">
-        <v>1313</v>
+        <v>5760</v>
       </c>
       <c r="F176">
-        <v>2080</v>
+        <v>17044</v>
       </c>
       <c r="G176">
-        <v>0.0003818374689999999</v>
+        <v>0.0016750828799999998</v>
       </c>
       <c r="H176">
-        <v>0.0005029858782</v>
+        <v>0.002206548864</v>
       </c>
     </row>
     <row r="177">
@@ -5112,25 +5100,25 @@
         <v>3</v>
       </c>
       <c r="B177" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
       </c>
       <c r="C177" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D177" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E177">
-        <v>1194</v>
+        <v>15437</v>
       </c>
       <c r="F177">
-        <v>1611</v>
+        <v>52154</v>
       </c>
       <c r="G177">
-        <v>0.00034723072199999996</v>
+        <v>0.004489280280999999</v>
       </c>
       <c r="H177">
-        <v>0.00045739919160000007</v>
+        <v>0.005913627571800002</v>
       </c>
     </row>
     <row r="178">
@@ -5138,25 +5126,25 @@
         <v>3</v>
       </c>
       <c r="B178" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
       </c>
       <c r="C178" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D178" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E178">
-        <v>1202</v>
+        <v>2335</v>
       </c>
       <c r="F178">
-        <v>1651</v>
+        <v>4490</v>
       </c>
       <c r="G178">
-        <v>0.000349557226</v>
+        <v>0.0006790483549999999</v>
       </c>
       <c r="H178">
-        <v>0.0004604638428000001</v>
+        <v>0.0008944950690000001</v>
       </c>
     </row>
     <row r="179">
@@ -5164,25 +5152,25 @@
         <v>3</v>
       </c>
       <c r="B179" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
       </c>
       <c r="C179" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D179" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E179">
-        <v>2316</v>
+        <v>1206</v>
       </c>
       <c r="F179">
-        <v>4655</v>
+        <v>1132</v>
       </c>
       <c r="G179">
-        <v>0.0006735229079999999</v>
+        <v>0.000350720478</v>
       </c>
       <c r="H179">
-        <v>0.0008872165224000001</v>
+        <v>0.00046199616840000005</v>
       </c>
     </row>
     <row r="180">
@@ -5190,25 +5178,25 @@
         <v>3</v>
       </c>
       <c r="B180" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
       </c>
       <c r="C180" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D180" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E180">
-        <v>840</v>
+        <v>1030</v>
       </c>
       <c r="F180">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="G180">
-        <v>0.00024428291999999997</v>
+        <v>0.0002995373899999999</v>
       </c>
       <c r="H180">
-        <v>0.00032178837600000006</v>
+        <v>0.00039457384200000006</v>
       </c>
     </row>
     <row r="181">
@@ -5216,25 +5204,25 @@
         <v>3</v>
       </c>
       <c r="B181" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
       </c>
       <c r="C181" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D181" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E181">
-        <v>1568</v>
+        <v>2312</v>
       </c>
       <c r="F181">
-        <v>4246</v>
+        <v>3896</v>
       </c>
       <c r="G181">
-        <v>0.00045599478399999994</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H181">
-        <v>0.0006006716352000001</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="182">
@@ -5242,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
       </c>
       <c r="C182" t="str">
         <v>Image</v>
@@ -5251,16 +5239,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E182">
-        <v>1122</v>
+        <v>1343</v>
       </c>
       <c r="F182">
-        <v>1464</v>
+        <v>2080</v>
       </c>
       <c r="G182">
-        <v>0.00032629218599999996</v>
+        <v>0.00039056185899999997</v>
       </c>
       <c r="H182">
-        <v>0.00042981733080000006</v>
+        <v>0.0005144783202000002</v>
       </c>
     </row>
     <row r="183">
@@ -5268,7 +5256,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
       </c>
       <c r="C183" t="str">
         <v>Image</v>
@@ -5277,16 +5265,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E183">
-        <v>1119</v>
+        <v>1185</v>
       </c>
       <c r="F183">
-        <v>1426</v>
+        <v>1611</v>
       </c>
       <c r="G183">
-        <v>0.00032541974699999997</v>
+        <v>0.0003446134049999999</v>
       </c>
       <c r="H183">
-        <v>0.0004286680866</v>
+        <v>0.0004539514590000001</v>
       </c>
     </row>
     <row r="184">
@@ -5294,7 +5282,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
       </c>
       <c r="C184" t="str">
         <v>Image</v>
@@ -5303,16 +5291,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E184">
-        <v>1457</v>
+        <v>1193</v>
       </c>
       <c r="F184">
-        <v>3019</v>
+        <v>1651</v>
       </c>
       <c r="G184">
-        <v>0.00042371454099999995</v>
+        <v>0.000346939909</v>
       </c>
       <c r="H184">
-        <v>0.0005581495998</v>
+        <v>0.00045701611020000003</v>
       </c>
     </row>
     <row r="185">
@@ -5320,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="B185" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
       </c>
       <c r="C185" t="str">
         <v>Image</v>
@@ -5329,16 +5317,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E185">
-        <v>1401</v>
+        <v>2316</v>
       </c>
       <c r="F185">
-        <v>2810</v>
+        <v>4655</v>
       </c>
       <c r="G185">
-        <v>0.00040742901299999995</v>
+        <v>0.0006735229079999999</v>
       </c>
       <c r="H185">
-        <v>0.0005366970414</v>
+        <v>0.0008872165224000001</v>
       </c>
     </row>
     <row r="186">
@@ -5346,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="B186" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
       </c>
       <c r="C186" t="str">
         <v>Image</v>
@@ -5355,16 +5343,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E186">
-        <v>949</v>
+        <v>831</v>
       </c>
       <c r="F186">
-        <v>1189</v>
+        <v>921</v>
       </c>
       <c r="G186">
-        <v>0.0002759815369999999</v>
+        <v>0.000241665603</v>
       </c>
       <c r="H186">
-        <v>0.0003635442486</v>
+        <v>0.00031834064339999996</v>
       </c>
     </row>
     <row r="187">
@@ -5372,7 +5360,7 @@
         <v>3</v>
       </c>
       <c r="B187" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
       </c>
       <c r="C187" t="str">
         <v>Image</v>
@@ -5381,16 +5369,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E187">
-        <v>1393</v>
+        <v>1568</v>
       </c>
       <c r="F187">
-        <v>3816</v>
+        <v>4246</v>
       </c>
       <c r="G187">
-        <v>0.000405102509</v>
+        <v>0.00045599478399999994</v>
       </c>
       <c r="H187">
-        <v>0.0005336323901999999</v>
+        <v>0.0006006716352000001</v>
       </c>
     </row>
     <row r="188">
@@ -5398,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="B188" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
       </c>
       <c r="C188" t="str">
         <v>Image</v>
@@ -5407,16 +5395,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E188">
-        <v>1163</v>
+        <v>1122</v>
       </c>
       <c r="F188">
-        <v>1577</v>
+        <v>1464</v>
       </c>
       <c r="G188">
-        <v>0.00033821551899999993</v>
+        <v>0.00032629218599999996</v>
       </c>
       <c r="H188">
-        <v>0.00044552366819999997</v>
+        <v>0.00042981733080000006</v>
       </c>
     </row>
     <row r="189">
@@ -5424,7 +5412,7 @@
         <v>3</v>
       </c>
       <c r="B189" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
       </c>
       <c r="C189" t="str">
         <v>Image</v>
@@ -5433,16 +5421,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E189">
-        <v>1804</v>
+        <v>1119</v>
       </c>
       <c r="F189">
-        <v>3511</v>
+        <v>1426</v>
       </c>
       <c r="G189">
-        <v>0.0005246266519999999</v>
+        <v>0.00032541974699999997</v>
       </c>
       <c r="H189">
-        <v>0.0006910788456000001</v>
+        <v>0.0004286680866</v>
       </c>
     </row>
     <row r="190">
@@ -5450,7 +5438,7 @@
         <v>3</v>
       </c>
       <c r="B190" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
       </c>
       <c r="C190" t="str">
         <v>Image</v>
@@ -5459,16 +5447,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E190">
-        <v>1059</v>
+        <v>1457</v>
       </c>
       <c r="F190">
-        <v>1362</v>
+        <v>3019</v>
       </c>
       <c r="G190">
-        <v>0.00030797096699999995</v>
+        <v>0.00042371454099999995</v>
       </c>
       <c r="H190">
-        <v>0.00040568320260000003</v>
+        <v>0.0005581495998</v>
       </c>
     </row>
     <row r="191">
@@ -5476,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B191" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
       </c>
       <c r="C191" t="str">
         <v>Image</v>
@@ -5485,16 +5473,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E191">
-        <v>517</v>
+        <v>1401</v>
       </c>
       <c r="F191">
-        <v>655</v>
+        <v>2810</v>
       </c>
       <c r="G191">
-        <v>0.000150350321</v>
+        <v>0.00040742901299999995</v>
       </c>
       <c r="H191">
-        <v>0.00019805308380000002</v>
+        <v>0.0005366970414</v>
       </c>
     </row>
     <row r="192">
@@ -5502,22 +5490,25 @@
         <v>3</v>
       </c>
       <c r="B192" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
       </c>
       <c r="C192" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D192" t="str">
-        <v>application/json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>940</v>
+      </c>
+      <c r="F192">
+        <v>1189</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>0.00027336421999999994</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>0.00036009651599999996</v>
       </c>
     </row>
     <row r="193">
@@ -5525,25 +5516,25 @@
         <v>3</v>
       </c>
       <c r="B193" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
       </c>
       <c r="C193" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D193" t="str">
-        <v>text/plain</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E193">
-        <v>122</v>
+        <v>1384</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>3816</v>
       </c>
       <c r="G193">
-        <v>0.00003547918599999999</v>
+        <v>0.00040248519199999994</v>
       </c>
       <c r="H193">
-        <v>0.00004673593080000001</v>
+        <v>0.0005301846576</v>
       </c>
     </row>
     <row r="194">
@@ -5551,25 +5542,25 @@
         <v>3</v>
       </c>
       <c r="B194" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
       </c>
       <c r="C194" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D194" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E194">
-        <v>15008</v>
+        <v>1163</v>
       </c>
       <c r="F194">
-        <v>277097</v>
+        <v>1577</v>
       </c>
       <c r="G194">
-        <v>0.004364521503999999</v>
+        <v>0.00033821551899999993</v>
       </c>
       <c r="H194">
-        <v>0.0057492856512</v>
+        <v>0.00044552366819999997</v>
       </c>
     </row>
     <row r="195">
@@ -5577,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="str">
-        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
       </c>
       <c r="C195" t="str">
         <v>Image</v>
@@ -5586,16 +5577,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E195">
-        <v>517</v>
+        <v>1813</v>
       </c>
       <c r="F195">
-        <v>655</v>
+        <v>3511</v>
       </c>
       <c r="G195">
-        <v>0.000150350321</v>
+        <v>0.000527243969</v>
       </c>
       <c r="H195">
-        <v>0.00019805308380000002</v>
+        <v>0.0006945265782000001</v>
       </c>
     </row>
     <row r="196">
@@ -5603,25 +5594,25 @@
         <v>3</v>
       </c>
       <c r="B196" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
       </c>
       <c r="C196" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D196" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E196">
-        <v>4015</v>
+        <v>1059</v>
       </c>
       <c r="F196">
-        <v>11785</v>
+        <v>1362</v>
       </c>
       <c r="G196">
-        <v>0.0011676141949999998</v>
+        <v>0.00030797096699999995</v>
       </c>
       <c r="H196">
-        <v>0.001538071821</v>
+        <v>0.00040568320260000003</v>
       </c>
     </row>
     <row r="197">
@@ -5629,25 +5620,25 @@
         <v>3</v>
       </c>
       <c r="B197" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C197" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D197" t="str">
         <v>image/svg+xml</v>
       </c>
       <c r="E197">
-        <v>681</v>
+        <v>508</v>
       </c>
       <c r="F197">
-        <v>285</v>
+        <v>655</v>
       </c>
       <c r="G197">
-        <v>0.00019804365299999995</v>
+        <v>0.000147733004</v>
       </c>
       <c r="H197">
-        <v>0.00026087843340000006</v>
+        <v>0.00019460535120000003</v>
       </c>
     </row>
     <row r="198">
@@ -5655,25 +5646,25 @@
         <v>3</v>
       </c>
       <c r="B198" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C198" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D198" t="str">
-        <v>image/svg+xml</v>
+        <v>text/plain</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="F198">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>0.00003547918599999999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>0.00004673593080000001</v>
       </c>
     </row>
     <row r="199">
@@ -5681,25 +5672,25 @@
         <v>3</v>
       </c>
       <c r="B199" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=311&amp;prev=b4af6b3e-8fc7-2062-00f6-6172736acf4a&amp;luid=ec1e4998-1ad2-ed00-876f-8c3c1ab7e352&amp;rnd=21930</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
       </c>
       <c r="C199" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D199" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E199">
-        <v>210</v>
+        <v>15034</v>
       </c>
       <c r="F199">
-        <v>34</v>
+        <v>277097</v>
       </c>
       <c r="G199">
-        <v>0.00006107072999999999</v>
+        <v>0.004372082641999999</v>
       </c>
       <c r="H199">
-        <v>0.00008044709400000001</v>
+        <v>0.0057592457676</v>
       </c>
     </row>
     <row r="200">
@@ -5707,25 +5698,22 @@
         <v>3</v>
       </c>
       <c r="B200" t="str">
-        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C200" t="str">
-        <v>Manifest</v>
+        <v>Preflight</v>
       </c>
       <c r="D200" t="str">
-        <v>application/manifest+json</v>
+        <v>application/json</v>
       </c>
       <c r="E200">
-        <v>846</v>
-      </c>
-      <c r="F200">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>0.00024602779799999996</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>0.00032408686440000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5733,25 +5721,25 @@
         <v>3</v>
       </c>
       <c r="B201" t="str">
-        <v>https://v.imgi.no/3bs5kjfz6y</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
       </c>
       <c r="C201" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D201" t="str">
-        <v>image/png</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E201">
-        <v>8481</v>
+        <v>4015</v>
       </c>
       <c r="F201">
-        <v>8099</v>
+        <v>11785</v>
       </c>
       <c r="G201">
-        <v>0.0024663850529999995</v>
+        <v>0.0011676141949999998</v>
       </c>
       <c r="H201">
-        <v>0.0032489133534</v>
+        <v>0.001538071821</v>
       </c>
     </row>
     <row r="202">
@@ -5759,25 +5747,25 @@
         <v>3</v>
       </c>
       <c r="B202" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C202" t="str">
         <v>Image</v>
       </c>
       <c r="D202" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="F202">
-        <v>795</v>
+        <v>655</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="203">
@@ -5785,25 +5773,25 @@
         <v>3</v>
       </c>
       <c r="B203" t="str">
-        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C203" t="str">
-        <v>Other</v>
+        <v>Fetch</v>
       </c>
       <c r="D203" t="str">
-        <v>image/x-icon</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E203">
-        <v>15476</v>
+        <v>681</v>
       </c>
       <c r="F203">
-        <v>15086</v>
+        <v>285</v>
       </c>
       <c r="G203">
-        <v>0.004500621987999999</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H203">
-        <v>0.0059285677464</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="204">
@@ -5837,30 +5825,186 @@
         <v>3</v>
       </c>
       <c r="B205" t="str">
+        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Manifest</v>
+      </c>
+      <c r="D205" t="str">
+        <v>application/manifest+json</v>
+      </c>
+      <c r="E205">
+        <v>846</v>
+      </c>
+      <c r="F205">
+        <v>445</v>
+      </c>
+      <c r="G205">
+        <v>0.00024602779799999996</v>
+      </c>
+      <c r="H205">
+        <v>0.00032408686440000005</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206" t="str">
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=365&amp;prev=a1595cdd-016b-bd36-0ccc-e9b409cbc3a5&amp;luid=6edbb5f3-6d66-5697-a665-94c027b75efd&amp;rnd=52327</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Image</v>
+      </c>
+      <c r="D206" t="str">
+        <v>image/gif</v>
+      </c>
+      <c r="E206">
+        <v>210</v>
+      </c>
+      <c r="F206">
+        <v>34</v>
+      </c>
+      <c r="G206">
+        <v>0.00006107072999999999</v>
+      </c>
+      <c r="H206">
+        <v>0.00008044709400000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207" t="str">
+        <v>https://v.imgi.no/3bs5kjfz6y</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Image</v>
+      </c>
+      <c r="D207" t="str">
+        <v>image/png</v>
+      </c>
+      <c r="E207">
+        <v>8480</v>
+      </c>
+      <c r="F207">
+        <v>8099</v>
+      </c>
+      <c r="G207">
+        <v>0.0024660942399999997</v>
+      </c>
+      <c r="H207">
+        <v>0.0032485302719999997</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208" t="str">
+        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Other</v>
+      </c>
+      <c r="D208" t="str">
+        <v>image/x-icon</v>
+      </c>
+      <c r="E208">
+        <v>15476</v>
+      </c>
+      <c r="F208">
+        <v>15086</v>
+      </c>
+      <c r="G208">
+        <v>0.004500621987999999</v>
+      </c>
+      <c r="H208">
+        <v>0.0059285677464</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="str">
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Image</v>
+      </c>
+      <c r="D209" t="str">
+        <v>image/png</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>795</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="str">
         <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
-      <c r="C205" t="str">
+      <c r="C210" t="str">
         <v>Fetch</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D210" t="str">
         <v>image/svg+xml</v>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
         <v>285</v>
       </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="str">
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Fetch</v>
+      </c>
+      <c r="D211" t="str">
+        <v>image/svg+xml</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>285</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H205"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H211"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5894,10 +6038,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>73925</v>
+        <v>74341</v>
       </c>
       <c r="D2">
-        <v>242793</v>
+        <v>246681</v>
       </c>
     </row>
     <row r="3">
@@ -5908,10 +6052,10 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>744319</v>
+        <v>744513</v>
       </c>
       <c r="D3">
-        <v>3515334</v>
+        <v>3515958</v>
       </c>
     </row>
     <row r="4">
@@ -5922,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>248013</v>
+        <v>248076</v>
       </c>
       <c r="D4">
         <v>243048</v>
@@ -5936,10 +6080,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>218364</v>
+        <v>218325</v>
       </c>
       <c r="D5">
-        <v>1930548</v>
+        <v>1930476</v>
       </c>
     </row>
     <row r="6">
@@ -5947,13 +6091,13 @@
         <v>Image</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>1780231</v>
+        <v>1655954</v>
       </c>
       <c r="D6">
-        <v>1851513</v>
+        <v>1843682</v>
       </c>
     </row>
     <row r="7">
@@ -5964,7 +6108,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>9547</v>
+        <v>9540</v>
       </c>
       <c r="D7">
         <v>8064</v>
@@ -6059,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1346949</v>
+        <v>1323488</v>
       </c>
       <c r="C2">
-        <v>0.39171027953699994</v>
+        <v>0.384887515744</v>
       </c>
       <c r="D2">
-        <v>0.5159911086486</v>
+        <v>0.5070036359232</v>
       </c>
     </row>
     <row r="3">
@@ -6073,13 +6217,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>888842</v>
+        <v>874911</v>
       </c>
       <c r="C3">
-        <v>0.258486808546</v>
+        <v>0.25443549264299997</v>
       </c>
       <c r="D3">
-        <v>0.3404988377388001</v>
+        <v>0.3351621307554001</v>
       </c>
     </row>
     <row r="4">
@@ -6087,13 +6231,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>889617</v>
+        <v>803359</v>
       </c>
       <c r="C4">
-        <v>0.258712188621</v>
+        <v>0.23362724086699999</v>
       </c>
       <c r="D4">
-        <v>0.3407957258238</v>
+        <v>0.3077518904226</v>
       </c>
     </row>
     <row r="5">
@@ -6101,13 +6245,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>889617</v>
+        <v>874911</v>
       </c>
       <c r="C5">
-        <v>0.258712188621</v>
+        <v>0.25443549264299997</v>
       </c>
       <c r="D5">
-        <v>0.3407957258238</v>
+        <v>0.3351621307554001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lillestrom.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lillestrom.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8181.400045</v>
+        <v>7709.504049999999</v>
       </c>
       <c r="C2">
-        <v>2723.32111</v>
+        <v>2330.53899</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>8375.1520075</v>
+        <v>7851.051630999998</v>
       </c>
       <c r="F2">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.05924270328137993</v>
       </c>
       <c r="H2">
-        <v>6411.008357168481</v>
+        <v>3019.424939867401</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2">
-        <v>1323488</v>
+        <v>1216696</v>
       </c>
       <c r="K2">
         <v>70</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5829.673275000001</v>
+        <v>9520.712265000002</v>
       </c>
       <c r="C3">
-        <v>2749.4143099999997</v>
+        <v>3627.029525000001</v>
       </c>
       <c r="D3">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>5948.737927500001</v>
+        <v>9700.098579500003</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>24.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5652.565882778654</v>
+        <v>6849.428552770363</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>874911</v>
+        <v>1621032</v>
       </c>
       <c r="K3">
         <v>70</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5458.567999999999</v>
+        <v>6603.971625</v>
       </c>
       <c r="C4">
-        <v>2710.7805</v>
+        <v>2809.0190700000003</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E4">
-        <v>5576.21075</v>
+        <v>6674.8369005</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5314.730298880579</v>
+        <v>5618.383082464349</v>
       </c>
       <c r="I4">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J4">
-        <v>803359</v>
+        <v>908748</v>
       </c>
       <c r="K4">
         <v>70</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5829.673275000001</v>
+        <v>7709.504049999999</v>
       </c>
       <c r="C5">
-        <v>2723.32111</v>
+        <v>2809.0190700000003</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>5948.737927500001</v>
+        <v>7851.051630999998</v>
       </c>
       <c r="F5">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5652.565882778654</v>
+        <v>5618.383082464349</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5">
-        <v>874911</v>
+        <v>1216696</v>
       </c>
       <c r="K5">
         <v>70</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>21773</v>
+        <v>21771</v>
       </c>
       <c r="F2">
         <v>73431</v>
       </c>
       <c r="G2">
-        <v>0.006331871448999999</v>
+        <v>0.006331289822999999</v>
       </c>
       <c r="H2">
-        <v>0.008340831322200001</v>
+        <v>0.008340065159399999</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E3">
-        <v>12385</v>
+        <v>12386</v>
       </c>
       <c r="F3">
         <v>41113</v>
       </c>
       <c r="G3">
-        <v>0.0036017190049999993</v>
+        <v>0.0036020098179999995</v>
       </c>
       <c r="H3">
-        <v>0.004744463139</v>
+        <v>0.0047448462204</v>
       </c>
     </row>
     <row r="4">
@@ -686,16 +686,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E4">
-        <v>14628</v>
+        <v>14399</v>
       </c>
       <c r="F4">
         <v>14044</v>
       </c>
       <c r="G4">
-        <v>0.004254012563999999</v>
+        <v>0.004187416387</v>
       </c>
       <c r="H4">
-        <v>0.005603714719200001</v>
+        <v>0.0055159890786</v>
       </c>
     </row>
     <row r="5">
@@ -712,16 +712,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E5">
-        <v>14531</v>
+        <v>14760</v>
       </c>
       <c r="F5">
         <v>14176</v>
       </c>
       <c r="G5">
-        <v>0.0042258037029999996</v>
+        <v>0.00429239988</v>
       </c>
       <c r="H5">
-        <v>0.005566555823400001</v>
+        <v>0.0056542814640000005</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?f79c0bf6-6960-b3d6-38aa-0b51a8079849</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -842,16 +842,16 @@
         <v>text/css</v>
       </c>
       <c r="E10">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F10">
         <v>5820</v>
       </c>
       <c r="G10">
-        <v>0.0004106279559999999</v>
+        <v>0.00041033714299999996</v>
       </c>
       <c r="H10">
-        <v>0.0005409109368000001</v>
+        <v>0.0005405278554</v>
       </c>
     </row>
     <row r="11">
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?f79c0bf6-6960-b3d6-38aa-0b51a8079849</v>
       </c>
       <c r="C11" t="str">
         <v>Script</v>
@@ -868,16 +868,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E11">
-        <v>6886</v>
+        <v>6923</v>
       </c>
       <c r="F11">
         <v>17805</v>
       </c>
       <c r="G11">
-        <v>0.002002538318</v>
+        <v>0.0020132983989999994</v>
       </c>
       <c r="H11">
-        <v>0.0026378985204000005</v>
+        <v>0.0026520725322</v>
       </c>
     </row>
     <row r="12">
@@ -943,16 +943,19 @@
         <v>Image</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="F14">
+        <v>15382</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="15">
@@ -1148,16 +1151,19 @@
         <v>Image</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="F22">
+        <v>15382</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="23">
@@ -1171,19 +1177,16 @@
         <v>Image</v>
       </c>
       <c r="D23" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E23">
-        <v>386</v>
-      </c>
-      <c r="F23">
-        <v>15382</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00011225381799999998</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001478694204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1249,19 +1252,16 @@
         <v>Image</v>
       </c>
       <c r="D26" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E26">
-        <v>63657</v>
-      </c>
-      <c r="F26">
-        <v>63206</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.018512283140999997</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.0243858126798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1275,19 +1275,16 @@
         <v>Image</v>
       </c>
       <c r="D27" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E27">
-        <v>43567</v>
-      </c>
-      <c r="F27">
-        <v>43116</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.012669849970999998</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.0166897073538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?d400ae37-43ca-ea12-676c-20d128ad4d38</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?f79c0bf6-6960-b3d6-38aa-0b51a8079849</v>
       </c>
       <c r="C29" t="str">
         <v>Script</v>
@@ -1327,16 +1324,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E29">
-        <v>9787</v>
+        <v>9741</v>
       </c>
       <c r="F29">
         <v>25748</v>
       </c>
       <c r="G29">
-        <v>0.0028461868309999994</v>
+        <v>0.002832809433</v>
       </c>
       <c r="H29">
-        <v>0.0037492176618</v>
+        <v>0.0037315959174000005</v>
       </c>
     </row>
     <row r="30">
@@ -1353,16 +1350,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E30">
-        <v>47192</v>
+        <v>47200</v>
       </c>
       <c r="F30">
         <v>237111</v>
       </c>
       <c r="G30">
-        <v>0.013724047096</v>
+        <v>0.0137263736</v>
       </c>
       <c r="H30">
-        <v>0.0180783774288</v>
+        <v>0.018081442080000003</v>
       </c>
     </row>
     <row r="31">
@@ -1379,16 +1376,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E31">
-        <v>112054</v>
+        <v>112064</v>
       </c>
       <c r="F31">
         <v>457048</v>
       </c>
       <c r="G31">
-        <v>0.032586759901999995</v>
+        <v>0.032589668031999995</v>
       </c>
       <c r="H31">
-        <v>0.0429258031956</v>
+        <v>0.0429296340096</v>
       </c>
     </row>
     <row r="32">
@@ -1405,16 +1402,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E32">
-        <v>5759</v>
+        <v>5750</v>
       </c>
       <c r="F32">
         <v>17044</v>
       </c>
       <c r="G32">
-        <v>0.0016747920669999998</v>
+        <v>0.0016721747499999998</v>
       </c>
       <c r="H32">
-        <v>0.0022061657826000004</v>
+        <v>0.0022027180500000004</v>
       </c>
     </row>
     <row r="33">
@@ -1457,16 +1454,16 @@
         <v>text/html</v>
       </c>
       <c r="E34">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="F34">
         <v>8796</v>
       </c>
       <c r="G34">
-        <v>0.0008756379429999999</v>
+        <v>0.0008753471299999999</v>
       </c>
       <c r="H34">
-        <v>0.0011534580954000002</v>
+        <v>0.001153075014</v>
       </c>
     </row>
     <row r="35">
@@ -1509,16 +1506,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E36">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F36">
         <v>69</v>
       </c>
       <c r="G36">
-        <v>0.000152386012</v>
+        <v>0.00015500332899999998</v>
       </c>
       <c r="H36">
-        <v>0.00020073465360000002</v>
+        <v>0.00020418238620000006</v>
       </c>
     </row>
     <row r="37">
@@ -1526,25 +1523,25 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
       </c>
       <c r="C37" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D37" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E37">
-        <v>15441</v>
+        <v>1259</v>
       </c>
       <c r="F37">
-        <v>52154</v>
+        <v>2080</v>
       </c>
       <c r="G37">
-        <v>0.004490443532999999</v>
+        <v>0.00036613356699999994</v>
       </c>
       <c r="H37">
-        <v>0.005915159897400001</v>
+        <v>0.00048229948260000005</v>
       </c>
     </row>
     <row r="38">
@@ -1552,25 +1549,25 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
       </c>
       <c r="C38" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D38" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E38">
-        <v>2335</v>
+        <v>1257</v>
       </c>
       <c r="F38">
-        <v>4490</v>
+        <v>1611</v>
       </c>
       <c r="G38">
-        <v>0.0006790483549999999</v>
+        <v>0.00036555194099999996</v>
       </c>
       <c r="H38">
-        <v>0.0008944950690000001</v>
+        <v>0.0004815333198000001</v>
       </c>
     </row>
     <row r="39">
@@ -1578,25 +1575,25 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
       </c>
       <c r="C39" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D39" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E39">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="F39">
-        <v>1132</v>
+        <v>1651</v>
       </c>
       <c r="G39">
-        <v>0.000353337795</v>
+        <v>0.000349557226</v>
       </c>
       <c r="H39">
-        <v>0.0004654439010000001</v>
+        <v>0.0004604638428000001</v>
       </c>
     </row>
     <row r="40">
@@ -1604,25 +1601,25 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
       </c>
       <c r="C40" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D40" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E40">
-        <v>1030</v>
+        <v>2307</v>
       </c>
       <c r="F40">
-        <v>891</v>
+        <v>4655</v>
       </c>
       <c r="G40">
-        <v>0.0002995373899999999</v>
+        <v>0.0006709055909999999</v>
       </c>
       <c r="H40">
-        <v>0.00039457384200000006</v>
+        <v>0.0008837687898000001</v>
       </c>
     </row>
     <row r="41">
@@ -1630,25 +1627,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
       </c>
       <c r="C41" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D41" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E41">
-        <v>2303</v>
+        <v>840</v>
       </c>
       <c r="F41">
-        <v>3896</v>
+        <v>921</v>
       </c>
       <c r="G41">
-        <v>0.0006697423389999999</v>
+        <v>0.00024428291999999997</v>
       </c>
       <c r="H41">
-        <v>0.0008822364642000001</v>
+        <v>0.00032178837600000006</v>
       </c>
     </row>
     <row r="42">
@@ -1656,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-dognapne-vakttjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
       </c>
       <c r="C42" t="str">
         <v>Image</v>
@@ -1665,16 +1662,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E42">
-        <v>1322</v>
+        <v>1568</v>
       </c>
       <c r="F42">
-        <v>2080</v>
+        <v>4246</v>
       </c>
       <c r="G42">
-        <v>0.00038445478599999995</v>
+        <v>0.00045599478399999994</v>
       </c>
       <c r="H42">
-        <v>0.0005064336108</v>
+        <v>0.0006006716352000001</v>
       </c>
     </row>
     <row r="43">
@@ -1682,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-helse-og-omsorg-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
       </c>
       <c r="C43" t="str">
         <v>Image</v>
@@ -1691,16 +1688,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E43">
-        <v>1194</v>
+        <v>1122</v>
       </c>
       <c r="F43">
-        <v>1611</v>
+        <v>1464</v>
       </c>
       <c r="G43">
-        <v>0.00034723072199999996</v>
+        <v>0.00032629218599999996</v>
       </c>
       <c r="H43">
-        <v>0.00045739919160000007</v>
+        <v>0.00042981733080000006</v>
       </c>
     </row>
     <row r="44">
@@ -1708,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skole-og-utdanning-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
       </c>
       <c r="C44" t="str">
         <v>Image</v>
@@ -1717,16 +1714,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E44">
-        <v>1193</v>
+        <v>1119</v>
       </c>
       <c r="F44">
-        <v>1651</v>
+        <v>1426</v>
       </c>
       <c r="G44">
-        <v>0.000346939909</v>
+        <v>0.00032541974699999997</v>
       </c>
       <c r="H44">
-        <v>0.00045701611020000003</v>
+        <v>0.0004286680866</v>
       </c>
     </row>
     <row r="45">
@@ -1734,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-barnehage-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
       </c>
       <c r="C45" t="str">
         <v>Image</v>
@@ -1743,16 +1740,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E45">
-        <v>2316</v>
+        <v>1448</v>
       </c>
       <c r="F45">
-        <v>4655</v>
+        <v>3019</v>
       </c>
       <c r="G45">
-        <v>0.0006735229079999999</v>
+        <v>0.00042109722399999997</v>
       </c>
       <c r="H45">
-        <v>0.0008872165224000001</v>
+        <v>0.0005547018672000001</v>
       </c>
     </row>
     <row r="46">
@@ -1760,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-natur-kultur-og-fritid-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
       </c>
       <c r="C46" t="str">
         <v>Image</v>
@@ -1769,16 +1766,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E46">
-        <v>831</v>
+        <v>1401</v>
       </c>
       <c r="F46">
-        <v>921</v>
+        <v>2810</v>
       </c>
       <c r="G46">
-        <v>0.000241665603</v>
+        <v>0.00040742901299999995</v>
       </c>
       <c r="H46">
-        <v>0.00031834064339999996</v>
+        <v>0.0005366970414</v>
       </c>
     </row>
     <row r="47">
@@ -1786,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-plan-bygg-og-eiendom-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
       </c>
       <c r="C47" t="str">
         <v>Image</v>
@@ -1795,16 +1792,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E47">
-        <v>1568</v>
+        <v>949</v>
       </c>
       <c r="F47">
-        <v>4246</v>
+        <v>1189</v>
       </c>
       <c r="G47">
-        <v>0.00045599478399999994</v>
+        <v>0.0002759815369999999</v>
       </c>
       <c r="H47">
-        <v>0.0006006716352000001</v>
+        <v>0.0003635442486</v>
       </c>
     </row>
     <row r="48">
@@ -1812,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vann-og-avlop-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
       </c>
       <c r="C48" t="str">
         <v>Image</v>
@@ -1821,16 +1818,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E48">
-        <v>1122</v>
+        <v>1393</v>
       </c>
       <c r="F48">
-        <v>1464</v>
+        <v>3816</v>
       </c>
       <c r="G48">
-        <v>0.00032629218599999996</v>
+        <v>0.000405102509</v>
       </c>
       <c r="H48">
-        <v>0.00042981733080000006</v>
+        <v>0.0005336323901999999</v>
       </c>
     </row>
     <row r="49">
@@ -1838,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-skatt-bevilning-og-naring-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
       </c>
       <c r="C49" t="str">
         <v>Image</v>
@@ -1847,16 +1844,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E49">
-        <v>1119</v>
+        <v>1163</v>
       </c>
       <c r="F49">
-        <v>1426</v>
+        <v>1577</v>
       </c>
       <c r="G49">
-        <v>0.00032541974699999997</v>
+        <v>0.00033821551899999993</v>
       </c>
       <c r="H49">
-        <v>0.0004286680866</v>
+        <v>0.00044552366819999997</v>
       </c>
     </row>
     <row r="50">
@@ -1864,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-vei-trafikk-og-parkering-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
       </c>
       <c r="C50" t="str">
         <v>Image</v>
@@ -1873,16 +1870,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E50">
-        <v>1457</v>
+        <v>1813</v>
       </c>
       <c r="F50">
-        <v>3019</v>
+        <v>3511</v>
       </c>
       <c r="G50">
-        <v>0.00042371454099999995</v>
+        <v>0.000527243969</v>
       </c>
       <c r="H50">
-        <v>0.0005581495998</v>
+        <v>0.0006945265782000001</v>
       </c>
     </row>
     <row r="51">
@@ -1890,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-bolig-og-sosiale-tjenester-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
       </c>
       <c r="C51" t="str">
         <v>Image</v>
@@ -1899,16 +1896,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E51">
-        <v>1401</v>
+        <v>1059</v>
       </c>
       <c r="F51">
-        <v>2810</v>
+        <v>1362</v>
       </c>
       <c r="G51">
-        <v>0.00040742901299999995</v>
+        <v>0.00030797096699999995</v>
       </c>
       <c r="H51">
-        <v>0.0005366970414</v>
+        <v>0.00040568320260000003</v>
       </c>
     </row>
     <row r="52">
@@ -1916,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-landbruk-jakt-og-fiske-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C52" t="str">
         <v>Image</v>
@@ -1925,16 +1922,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E52">
-        <v>949</v>
+        <v>517</v>
       </c>
       <c r="F52">
-        <v>1189</v>
+        <v>655</v>
       </c>
       <c r="G52">
-        <v>0.0002759815369999999</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H52">
-        <v>0.0003635442486</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="53">
@@ -1942,25 +1939,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-avfall-og-gjenvinning-color.svg</v>
+        <v>https://siteimproveanalytics.com/js/siteanalyze_6002182.js</v>
       </c>
       <c r="C53" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D53" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E53">
-        <v>1384</v>
+        <v>15444</v>
       </c>
       <c r="F53">
-        <v>3816</v>
+        <v>52154</v>
       </c>
       <c r="G53">
-        <v>0.00040248519199999994</v>
+        <v>0.004491315972</v>
       </c>
       <c r="H53">
-        <v>0.0005301846576</v>
+        <v>0.0059163091416</v>
       </c>
     </row>
     <row r="54">
@@ -1968,25 +1965,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-energi-klima-og-miljo-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-85d63758.entry.js</v>
       </c>
       <c r="C54" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D54" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E54">
-        <v>1154</v>
+        <v>2335</v>
       </c>
       <c r="F54">
-        <v>1577</v>
+        <v>4490</v>
       </c>
       <c r="G54">
-        <v>0.00033559820199999995</v>
+        <v>0.0006790483549999999</v>
       </c>
       <c r="H54">
-        <v>0.00044207593560000003</v>
+        <v>0.0008944950690000001</v>
       </c>
     </row>
     <row r="55">
@@ -1994,25 +1991,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-integrering-og-flyktninger-color.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-ac5eccdf.entry.js</v>
       </c>
       <c r="C55" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D55" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E55">
-        <v>1804</v>
+        <v>1215</v>
       </c>
       <c r="F55">
-        <v>3511</v>
+        <v>1132</v>
       </c>
       <c r="G55">
-        <v>0.0005246266519999999</v>
+        <v>0.000353337795</v>
       </c>
       <c r="H55">
-        <v>0.0006910788456000001</v>
+        <v>0.0004654439010000001</v>
       </c>
     </row>
     <row r="56">
@@ -2020,25 +2017,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-politikk-og-administrasjon.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-32f6aaef.entry.js</v>
       </c>
       <c r="C56" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D56" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E56">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="F56">
-        <v>1362</v>
+        <v>891</v>
       </c>
       <c r="G56">
-        <v>0.00030797096699999995</v>
+        <v>0.0002995373899999999</v>
       </c>
       <c r="H56">
-        <v>0.00040568320260000003</v>
+        <v>0.00039457384200000006</v>
       </c>
     </row>
     <row r="57">
@@ -2046,25 +2043,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-62cd6a42.entry.js</v>
       </c>
       <c r="C57" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D57" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E57">
-        <v>517</v>
+        <v>2312</v>
       </c>
       <c r="F57">
-        <v>655</v>
+        <v>3896</v>
       </c>
       <c r="G57">
-        <v>0.000150350321</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H57">
-        <v>0.00019805308380000002</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="58">
@@ -2075,19 +2072,22 @@
         <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C58" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D58" t="str">
-        <v>application/json</v>
+        <v>text/plain</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.00003547918599999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.00004673593080000001</v>
       </c>
     </row>
     <row r="59">
@@ -2095,25 +2095,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
       </c>
       <c r="C59" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D59" t="str">
-        <v>text/plain</v>
+        <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>122</v>
+        <v>15008</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>277097</v>
       </c>
       <c r="G59">
-        <v>0.00003547918599999999</v>
+        <v>0.004364521503999999</v>
       </c>
       <c r="H59">
-        <v>0.00004673593080000001</v>
+        <v>0.0057492856512</v>
       </c>
     </row>
     <row r="60">
@@ -2121,25 +2121,22 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C60" t="str">
-        <v>Script</v>
+        <v>Preflight</v>
       </c>
       <c r="D60" t="str">
-        <v>application/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E60">
-        <v>15007</v>
-      </c>
-      <c r="F60">
-        <v>277097</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.004364230690999999</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0.005748902569800001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2147,25 +2144,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
+        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C61" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D61" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E61">
-        <v>4015</v>
+        <v>517</v>
       </c>
       <c r="F61">
-        <v>11785</v>
+        <v>655</v>
       </c>
       <c r="G61">
-        <v>0.0011676141949999998</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H61">
-        <v>0.001538071821</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="62">
@@ -2173,25 +2170,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
       </c>
       <c r="C62" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D62" t="str">
-        <v>image/svg+xml</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E62">
-        <v>517</v>
+        <v>4015</v>
       </c>
       <c r="F62">
-        <v>655</v>
+        <v>11785</v>
       </c>
       <c r="G62">
-        <v>0.000150350321</v>
+        <v>0.0011676141949999998</v>
       </c>
       <c r="H62">
-        <v>0.00019805308380000002</v>
+        <v>0.001538071821</v>
       </c>
     </row>
     <row r="63">
@@ -2251,25 +2248,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C65" t="str">
-        <v>Manifest</v>
+        <v>Fetch</v>
       </c>
       <c r="D65" t="str">
-        <v>application/manifest+json</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E65">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="G65">
-        <v>0.00024602779799999996</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0.00032408686440000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2277,25 +2274,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=317&amp;prev=37f7ff83-7540-7cb1-4210-c46b8bc1b617&amp;luid=0eaac448-b9f8-5ec9-c2f6-0f8f967b1504&amp;rnd=76809</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C66" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D66" t="str">
-        <v>image/gif</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E66">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="G66">
-        <v>0.00006107072999999999</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.00008044709400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2303,25 +2300,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>https://v.imgi.no/3bs5kjfz6y</v>
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=302&amp;prev=ee74b81b-8fde-985b-dd36-454f794ce6e5&amp;luid=f55591e2-5181-0180-57b4-9721d17f2ab6&amp;rnd=47281</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
       </c>
       <c r="D67" t="str">
-        <v>image/png</v>
+        <v>image/gif</v>
       </c>
       <c r="E67">
-        <v>8481</v>
+        <v>210</v>
       </c>
       <c r="F67">
-        <v>8099</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>0.0024663850529999995</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H67">
-        <v>0.0032489133534</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="68">
@@ -2329,25 +2326,25 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
       </c>
       <c r="C68" t="str">
-        <v>Image</v>
+        <v>Manifest</v>
       </c>
       <c r="D68" t="str">
-        <v>image/png</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="F68">
-        <v>795</v>
+        <v>445</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="69">
@@ -2355,25 +2352,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
+        <v>https://v.imgi.no/3bs5kjfz6y</v>
       </c>
       <c r="C69" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D69" t="str">
-        <v>image/x-icon</v>
+        <v>image/png</v>
       </c>
       <c r="E69">
-        <v>15476</v>
+        <v>8481</v>
       </c>
       <c r="F69">
-        <v>15086</v>
+        <v>8099</v>
       </c>
       <c r="G69">
-        <v>0.004500621987999999</v>
+        <v>0.0024663850529999995</v>
       </c>
       <c r="H69">
-        <v>0.0059285677464</v>
+        <v>0.0032489133534</v>
       </c>
     </row>
     <row r="70">
@@ -2381,19 +2378,19 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
       </c>
       <c r="C70" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D70" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2407,25 +2404,25 @@
         <v>1</v>
       </c>
       <c r="B71" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
       </c>
       <c r="C71" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D71" t="str">
-        <v>image/svg+xml</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>15476</v>
       </c>
       <c r="F71">
-        <v>285</v>
+        <v>15086</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.004500621987999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.0059285677464</v>
       </c>
     </row>
     <row r="72">
@@ -2442,16 +2439,16 @@
         <v>text/html</v>
       </c>
       <c r="E72">
-        <v>21769</v>
+        <v>21773</v>
       </c>
       <c r="F72">
         <v>73431</v>
       </c>
       <c r="G72">
-        <v>0.006330708196999999</v>
+        <v>0.006331871448999999</v>
       </c>
       <c r="H72">
-        <v>0.0083392989966</v>
+        <v>0.008340831322200001</v>
       </c>
     </row>
     <row r="73">
@@ -2468,16 +2465,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E73">
-        <v>12386</v>
+        <v>12385</v>
       </c>
       <c r="F73">
         <v>41113</v>
       </c>
       <c r="G73">
-        <v>0.0036020098179999995</v>
+        <v>0.0036017190049999993</v>
       </c>
       <c r="H73">
-        <v>0.0047448462204</v>
+        <v>0.004744463139</v>
       </c>
     </row>
     <row r="74">
@@ -2494,16 +2491,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E74">
-        <v>14408</v>
+        <v>14399</v>
       </c>
       <c r="F74">
         <v>14044</v>
       </c>
       <c r="G74">
-        <v>0.004190033703999999</v>
+        <v>0.004187416387</v>
       </c>
       <c r="H74">
-        <v>0.0055194368112</v>
+        <v>0.0055159890786</v>
       </c>
     </row>
     <row r="75">
@@ -2546,16 +2543,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E76">
-        <v>38553</v>
+        <v>38333</v>
       </c>
       <c r="F76">
         <v>37960</v>
       </c>
       <c r="G76">
-        <v>0.011211713588999998</v>
+        <v>0.011147734728999999</v>
       </c>
       <c r="H76">
-        <v>0.0147689372142</v>
+        <v>0.0146846593062</v>
       </c>
     </row>
     <row r="77">
@@ -2572,16 +2569,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E77">
-        <v>15191</v>
+        <v>15254</v>
       </c>
       <c r="F77">
         <v>14836</v>
       </c>
       <c r="G77">
-        <v>0.004417740282999999</v>
+        <v>0.0044360615019999996</v>
       </c>
       <c r="H77">
-        <v>0.005819389547400001</v>
+        <v>0.0058435236756</v>
       </c>
     </row>
     <row r="78">
@@ -2589,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?d9278eae-3247-5eb1-6da3-a9720fff70f4</v>
       </c>
       <c r="C78" t="str">
         <v>Stylesheet</v>
@@ -2667,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?d9278eae-3247-5eb1-6da3-a9720fff70f4</v>
       </c>
       <c r="C81" t="str">
         <v>Script</v>
@@ -2676,16 +2673,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E81">
-        <v>6923</v>
+        <v>7080</v>
       </c>
       <c r="F81">
         <v>17805</v>
       </c>
       <c r="G81">
-        <v>0.0020132983989999994</v>
+        <v>0.0020589560399999996</v>
       </c>
       <c r="H81">
-        <v>0.0026520725322</v>
+        <v>0.0027122163120000004</v>
       </c>
     </row>
     <row r="82">
@@ -2693,25 +2690,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
       </c>
       <c r="C82" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D82" t="str">
-        <v>application/json</v>
+        <v>image/webp</v>
       </c>
       <c r="E82">
-        <v>3058</v>
+        <v>53221</v>
       </c>
       <c r="F82">
-        <v>2686</v>
+        <v>52770</v>
       </c>
       <c r="G82">
-        <v>0.0008893061539999999</v>
+        <v>0.015477358672999998</v>
       </c>
       <c r="H82">
-        <v>0.0011714629212000002</v>
+        <v>0.0203879751894</v>
       </c>
     </row>
     <row r="83">
@@ -2719,25 +2716,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
       </c>
       <c r="C83" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D83" t="str">
-        <v>text/html</v>
+        <v>image/webp</v>
       </c>
       <c r="E83">
-        <v>3009</v>
+        <v>140474</v>
       </c>
       <c r="F83">
-        <v>8796</v>
+        <v>140088</v>
       </c>
       <c r="G83">
-        <v>0.0008750563169999999</v>
+        <v>0.040851665361999995</v>
       </c>
       <c r="H83">
-        <v>0.0011526919326</v>
+        <v>0.0538129765836</v>
       </c>
     </row>
     <row r="84">
@@ -2745,25 +2742,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
       </c>
       <c r="C84" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D84" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E84">
-        <v>12207</v>
+        <v>162594</v>
       </c>
       <c r="F84">
-        <v>24603</v>
+        <v>162208</v>
       </c>
       <c r="G84">
-        <v>0.0035499542909999994</v>
+        <v>0.047284448922</v>
       </c>
       <c r="H84">
-        <v>0.004676274649800001</v>
+        <v>0.06228673715160002</v>
       </c>
     </row>
     <row r="85">
@@ -2771,25 +2768,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
       </c>
       <c r="C85" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E85">
-        <v>533</v>
+        <v>39583</v>
       </c>
       <c r="F85">
-        <v>69</v>
+        <v>39132</v>
       </c>
       <c r="G85">
-        <v>0.00015500332899999998</v>
+        <v>0.011511250978999998</v>
       </c>
       <c r="H85">
-        <v>0.00020418238620000006</v>
+        <v>0.015163511056200002</v>
       </c>
     </row>
     <row r="86">
@@ -2797,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2806,16 +2803,16 @@
         <v>image/webp</v>
       </c>
       <c r="E86">
-        <v>53221</v>
+        <v>106334</v>
       </c>
       <c r="F86">
-        <v>52770</v>
+        <v>105948</v>
       </c>
       <c r="G86">
-        <v>0.015477358672999998</v>
+        <v>0.030923309541999993</v>
       </c>
       <c r="H86">
-        <v>0.0203879751894</v>
+        <v>0.040734577587600004</v>
       </c>
     </row>
     <row r="87">
@@ -2823,22 +2820,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
       </c>
       <c r="C87" t="str">
         <v>Image</v>
       </c>
       <c r="D87" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>38325</v>
+      </c>
+      <c r="F87">
+        <v>37874</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.011145408224999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.014681594655000001</v>
       </c>
     </row>
     <row r="88">
@@ -2846,25 +2846,22 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
       </c>
       <c r="C88" t="str">
         <v>Image</v>
       </c>
       <c r="D88" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E88">
-        <v>98074</v>
-      </c>
-      <c r="F88">
-        <v>137108</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0.028521194161999996</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0.0375703252236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2872,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
       </c>
       <c r="C89" t="str">
         <v>Image</v>
@@ -2881,16 +2878,16 @@
         <v>image/webp</v>
       </c>
       <c r="E89">
-        <v>39583</v>
+        <v>43315</v>
       </c>
       <c r="F89">
-        <v>39132</v>
+        <v>42864</v>
       </c>
       <c r="G89">
-        <v>0.011511250978999998</v>
+        <v>0.012596565094999998</v>
       </c>
       <c r="H89">
-        <v>0.015163511056200002</v>
+        <v>0.016593170841000003</v>
       </c>
     </row>
     <row r="90">
@@ -2898,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
       </c>
       <c r="C90" t="str">
         <v>Image</v>
@@ -2907,16 +2904,16 @@
         <v>image/webp</v>
       </c>
       <c r="E90">
-        <v>23652</v>
+        <v>53211</v>
       </c>
       <c r="F90">
-        <v>54802</v>
+        <v>52760</v>
       </c>
       <c r="G90">
-        <v>0.006878309075999999</v>
+        <v>0.015474450542999998</v>
       </c>
       <c r="H90">
-        <v>0.009060641272799999</v>
+        <v>0.020384144375400003</v>
       </c>
     </row>
     <row r="91">
@@ -2924,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
       </c>
       <c r="C91" t="str">
         <v>Image</v>
@@ -2933,16 +2930,16 @@
         <v>image/webp</v>
       </c>
       <c r="E91">
-        <v>38325</v>
+        <v>239420</v>
       </c>
       <c r="F91">
-        <v>37874</v>
+        <v>239034</v>
       </c>
       <c r="G91">
-        <v>0.011145408224999999</v>
+        <v>0.06962644845999999</v>
       </c>
       <c r="H91">
-        <v>0.014681594655000001</v>
+        <v>0.09171734878800002</v>
       </c>
     </row>
     <row r="92">
@@ -2950,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
       </c>
       <c r="C92" t="str">
         <v>Image</v>
@@ -2959,16 +2956,16 @@
         <v>image/webp</v>
       </c>
       <c r="E92">
-        <v>47304</v>
+        <v>138800</v>
       </c>
       <c r="F92">
-        <v>97072</v>
+        <v>138414</v>
       </c>
       <c r="G92">
-        <v>0.013756618151999998</v>
+        <v>0.040364844399999995</v>
       </c>
       <c r="H92">
-        <v>0.018121282545599998</v>
+        <v>0.05317169832</v>
       </c>
     </row>
     <row r="93">
@@ -2976,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
       </c>
       <c r="C93" t="str">
         <v>Image</v>
@@ -2985,16 +2982,16 @@
         <v>image/webp</v>
       </c>
       <c r="E93">
-        <v>43315</v>
+        <v>386</v>
       </c>
       <c r="F93">
-        <v>42864</v>
+        <v>15382</v>
       </c>
       <c r="G93">
-        <v>0.012596565094999998</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H93">
-        <v>0.016593170841000003</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="94">
@@ -3002,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
       </c>
       <c r="C94" t="str">
         <v>Image</v>
@@ -3011,16 +3008,16 @@
         <v>image/webp</v>
       </c>
       <c r="E94">
-        <v>53211</v>
+        <v>73161</v>
       </c>
       <c r="F94">
-        <v>52760</v>
+        <v>72710</v>
       </c>
       <c r="G94">
-        <v>0.015474450542999998</v>
+        <v>0.021276169892999998</v>
       </c>
       <c r="H94">
-        <v>0.020384144375400003</v>
+        <v>0.0280266183054</v>
       </c>
     </row>
     <row r="95">
@@ -3028,22 +3025,25 @@
         <v>2</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
       </c>
       <c r="C95" t="str">
         <v>Image</v>
       </c>
       <c r="D95" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>54031</v>
+      </c>
+      <c r="F95">
+        <v>53580</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.015712917203</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>0.0206982711234</v>
       </c>
     </row>
     <row r="96">
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
       </c>
       <c r="C96" t="str">
         <v>Image</v>
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
       </c>
       <c r="C97" t="str">
         <v>Image</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
       </c>
       <c r="C98" t="str">
         <v>Image</v>
@@ -3120,22 +3120,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?d9278eae-3247-5eb1-6da3-a9720fff70f4</v>
       </c>
       <c r="C99" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D99" t="str">
-        <v/>
+        <v>application/x-javascript</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>9732</v>
+      </c>
+      <c r="F99">
+        <v>25748</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.0028301921159999996</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>0.0037281481847999997</v>
       </c>
     </row>
     <row r="100">
@@ -3143,22 +3146,25 @@
         <v>2</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
+        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
       </c>
       <c r="C100" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D100" t="str">
-        <v/>
+        <v>text/javascript</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>47190</v>
+      </c>
+      <c r="F100">
+        <v>237111</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.013723465469999998</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.018077611266000004</v>
       </c>
     </row>
     <row r="101">
@@ -3166,22 +3172,25 @@
         <v>2</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
+        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
       </c>
       <c r="C101" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D101" t="str">
-        <v/>
+        <v>text/javascript</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>112062</v>
+      </c>
+      <c r="F101">
+        <v>457048</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.032589086405999994</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.0429288678468</v>
       </c>
     </row>
     <row r="102">
@@ -3189,22 +3198,25 @@
         <v>2</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
+        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
       </c>
       <c r="C102" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D102" t="str">
-        <v/>
+        <v>application/javascript</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>5750</v>
+      </c>
+      <c r="F102">
+        <v>17044</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.0016721747499999998</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.0022027180500000004</v>
       </c>
     </row>
     <row r="103">
@@ -3212,25 +3224,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?ef125d0d-4a9b-7eeb-0b6e-3449ba813b1c</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
       </c>
       <c r="C103" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D103" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E103">
-        <v>9741</v>
+        <v>3058</v>
       </c>
       <c r="F103">
-        <v>25748</v>
+        <v>2686</v>
       </c>
       <c r="G103">
-        <v>0.002832809433</v>
+        <v>0.0008893061539999999</v>
       </c>
       <c r="H103">
-        <v>0.0037315959174000005</v>
+        <v>0.0011714629212000002</v>
       </c>
     </row>
     <row r="104">
@@ -3238,25 +3250,25 @@
         <v>2</v>
       </c>
       <c r="B104" t="str">
-        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C104" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D104" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E104">
-        <v>47202</v>
+        <v>3011</v>
       </c>
       <c r="F104">
-        <v>237111</v>
+        <v>8796</v>
       </c>
       <c r="G104">
-        <v>0.013726955225999999</v>
+        <v>0.0008756379429999999</v>
       </c>
       <c r="H104">
-        <v>0.0180822082428</v>
+        <v>0.0011534580954000002</v>
       </c>
     </row>
     <row r="105">
@@ -3264,25 +3276,25 @@
         <v>2</v>
       </c>
       <c r="B105" t="str">
-        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
       </c>
       <c r="C105" t="str">
         <v>Script</v>
       </c>
       <c r="D105" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E105">
-        <v>112062</v>
+        <v>12207</v>
       </c>
       <c r="F105">
-        <v>457048</v>
+        <v>24603</v>
       </c>
       <c r="G105">
-        <v>0.032589086405999994</v>
+        <v>0.0035499542909999994</v>
       </c>
       <c r="H105">
-        <v>0.0429288678468</v>
+        <v>0.004676274649800001</v>
       </c>
     </row>
     <row r="106">
@@ -3290,25 +3302,25 @@
         <v>2</v>
       </c>
       <c r="B106" t="str">
-        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
       </c>
       <c r="C106" t="str">
         <v>Script</v>
       </c>
       <c r="D106" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E106">
-        <v>5750</v>
+        <v>533</v>
       </c>
       <c r="F106">
-        <v>17044</v>
+        <v>69</v>
       </c>
       <c r="G106">
-        <v>0.0016721747499999998</v>
+        <v>0.00015500332899999998</v>
       </c>
       <c r="H106">
-        <v>0.0022027180500000004</v>
+        <v>0.00020418238620000006</v>
       </c>
     </row>
     <row r="107">
@@ -3325,16 +3337,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>15447</v>
+        <v>15449</v>
       </c>
       <c r="F107">
         <v>52154</v>
       </c>
       <c r="G107">
-        <v>0.004492188410999999</v>
+        <v>0.0044927700369999995</v>
       </c>
       <c r="H107">
-        <v>0.005917458385800001</v>
+        <v>0.0059182245486</v>
       </c>
     </row>
     <row r="108">
@@ -3429,16 +3441,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E111">
-        <v>2303</v>
+        <v>2312</v>
       </c>
       <c r="F111">
         <v>3896</v>
       </c>
       <c r="G111">
-        <v>0.0006697423389999999</v>
+        <v>0.000672359656</v>
       </c>
       <c r="H111">
-        <v>0.0008822364642000001</v>
+        <v>0.0008856841968000002</v>
       </c>
     </row>
     <row r="112">
@@ -3481,16 +3493,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E113">
-        <v>1257</v>
+        <v>1194</v>
       </c>
       <c r="F113">
         <v>1611</v>
       </c>
       <c r="G113">
-        <v>0.00036555194099999996</v>
+        <v>0.00034723072199999996</v>
       </c>
       <c r="H113">
-        <v>0.0004815333198000001</v>
+        <v>0.00045739919160000007</v>
       </c>
     </row>
     <row r="114">
@@ -3507,16 +3519,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E114">
-        <v>1202</v>
+        <v>1256</v>
       </c>
       <c r="F114">
         <v>1651</v>
       </c>
       <c r="G114">
-        <v>0.000349557226</v>
+        <v>0.00036526112799999995</v>
       </c>
       <c r="H114">
-        <v>0.0004604638428000001</v>
+        <v>0.0004811502384</v>
       </c>
     </row>
     <row r="115">
@@ -3533,16 +3545,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E115">
-        <v>2307</v>
+        <v>2316</v>
       </c>
       <c r="F115">
         <v>4655</v>
       </c>
       <c r="G115">
-        <v>0.0006709055909999999</v>
+        <v>0.0006735229079999999</v>
       </c>
       <c r="H115">
-        <v>0.0008837687898000001</v>
+        <v>0.0008872165224000001</v>
       </c>
     </row>
     <row r="116">
@@ -3585,16 +3597,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E117">
-        <v>1559</v>
+        <v>1568</v>
       </c>
       <c r="F117">
         <v>4246</v>
       </c>
       <c r="G117">
-        <v>0.00045337746699999996</v>
+        <v>0.00045599478399999994</v>
       </c>
       <c r="H117">
-        <v>0.0005972239026000001</v>
+        <v>0.0006006716352000001</v>
       </c>
     </row>
     <row r="118">
@@ -3663,16 +3675,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E120">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="F120">
         <v>3019</v>
       </c>
       <c r="G120">
-        <v>0.00042371454099999995</v>
+        <v>0.00042109722399999997</v>
       </c>
       <c r="H120">
-        <v>0.0005581495998</v>
+        <v>0.0005547018672000001</v>
       </c>
     </row>
     <row r="121">
@@ -3741,16 +3753,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E123">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="F123">
         <v>3816</v>
       </c>
       <c r="G123">
-        <v>0.000405102509</v>
+        <v>0.00040248519199999994</v>
       </c>
       <c r="H123">
-        <v>0.0005336323901999999</v>
+        <v>0.0005301846576</v>
       </c>
     </row>
     <row r="124">
@@ -3920,16 +3932,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E130">
-        <v>15034</v>
+        <v>15008</v>
       </c>
       <c r="F130">
         <v>277097</v>
       </c>
       <c r="G130">
-        <v>0.004372082641999999</v>
+        <v>0.004364521503999999</v>
       </c>
       <c r="H130">
-        <v>0.0057592457676</v>
+        <v>0.0057492856512</v>
       </c>
     </row>
     <row r="131">
@@ -3937,25 +3949,25 @@
         <v>2</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
       </c>
       <c r="C131" t="str">
-        <v>Manifest</v>
+        <v>Script</v>
       </c>
       <c r="D131" t="str">
-        <v>application/manifest+json</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E131">
-        <v>846</v>
+        <v>4015</v>
       </c>
       <c r="F131">
-        <v>445</v>
+        <v>11785</v>
       </c>
       <c r="G131">
-        <v>0.00024602779799999996</v>
+        <v>0.0011676141949999998</v>
       </c>
       <c r="H131">
-        <v>0.00032408686440000005</v>
+        <v>0.001538071821</v>
       </c>
     </row>
     <row r="132">
@@ -3963,25 +3975,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-75e01645.entry.js</v>
+        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
       </c>
       <c r="C132" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D132" t="str">
-        <v>application/x-javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E132">
-        <v>4015</v>
+        <v>517</v>
       </c>
       <c r="F132">
-        <v>11785</v>
+        <v>655</v>
       </c>
       <c r="G132">
-        <v>0.0011676141949999998</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H132">
-        <v>0.001538071821</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="133">
@@ -3989,25 +4001,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="str">
-        <v>https://design.lillestrom.kommune.no//assets/images/icon-navigation-arrow-right.svg</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
       </c>
       <c r="C133" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D133" t="str">
         <v>image/svg+xml</v>
       </c>
       <c r="E133">
-        <v>517</v>
+        <v>681</v>
       </c>
       <c r="F133">
-        <v>655</v>
+        <v>285</v>
       </c>
       <c r="G133">
-        <v>0.000150350321</v>
+        <v>0.00019804365299999995</v>
       </c>
       <c r="H133">
-        <v>0.00019805308380000002</v>
+        <v>0.00026087843340000006</v>
       </c>
     </row>
     <row r="134">
@@ -4024,16 +4036,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E134">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>285</v>
       </c>
       <c r="G134">
-        <v>0.00019804365299999995</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>0.00026087843340000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4041,25 +4053,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/assets/streamline-icon-interface-arrows-button-down@48x48.svg</v>
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=492&amp;prev=fd332124-aca5-4fca-1209-0ac9642a834e&amp;luid=2d0e0b7f-9ce9-68a6-0098-cbd61d9d715b&amp;rnd=99233</v>
       </c>
       <c r="C135" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D135" t="str">
-        <v>image/svg+xml</v>
+        <v>image/gif</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F135">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="136">
@@ -4067,25 +4079,25 @@
         <v>2</v>
       </c>
       <c r="B136" t="str">
-        <v>https://v.imgi.no/3bs5kjfz6y</v>
+        <v>https://www.lillestrom.kommune.no/site.webmanifest</v>
       </c>
       <c r="C136" t="str">
-        <v>Image</v>
+        <v>Manifest</v>
       </c>
       <c r="D136" t="str">
-        <v>image/png</v>
+        <v>application/manifest+json</v>
       </c>
       <c r="E136">
-        <v>8480</v>
+        <v>846</v>
       </c>
       <c r="F136">
-        <v>8099</v>
+        <v>445</v>
       </c>
       <c r="G136">
-        <v>0.0024660942399999997</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H136">
-        <v>0.0032485302719999997</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="137">
@@ -4093,25 +4105,25 @@
         <v>2</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
+        <v>https://v.imgi.no/3bs5kjfz6y</v>
       </c>
       <c r="C137" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D137" t="str">
-        <v>image/x-icon</v>
+        <v>image/png</v>
       </c>
       <c r="E137">
-        <v>15476</v>
+        <v>8480</v>
       </c>
       <c r="F137">
-        <v>15086</v>
+        <v>8099</v>
       </c>
       <c r="G137">
-        <v>0.004500621987999999</v>
+        <v>0.0024660942399999997</v>
       </c>
       <c r="H137">
-        <v>0.0059285677464</v>
+        <v>0.0032485302719999997</v>
       </c>
     </row>
     <row r="138">
@@ -4119,25 +4131,25 @@
         <v>2</v>
       </c>
       <c r="B138" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=477&amp;prev=8bd4b383-b547-42c6-6206-11ccc2bc1e2c&amp;luid=6e40b883-9d01-d7f9-9343-a7bd11ed4cfe&amp;rnd=65608</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
       </c>
       <c r="C138" t="str">
         <v>Image</v>
       </c>
       <c r="D138" t="str">
-        <v>image/gif</v>
+        <v>image/png</v>
       </c>
       <c r="E138">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>34</v>
+        <v>795</v>
       </c>
       <c r="G138">
-        <v>0.00006107072999999999</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0.00008044709400000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4145,25 +4157,25 @@
         <v>2</v>
       </c>
       <c r="B139" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAADQAAAA1CAYAAAAOJMhOAAAACXBIWXMAACxLAAAsSwGlPZapAAAAA…</v>
+        <v>https://www.lillestrom.kommune.no/favicon.ico</v>
       </c>
       <c r="C139" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D139" t="str">
-        <v>image/png</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>15476</v>
       </c>
       <c r="F139">
-        <v>795</v>
+        <v>15086</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.004500621987999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>0.0059285677464</v>
       </c>
     </row>
     <row r="140">
@@ -4232,16 +4244,16 @@
         <v>text/html</v>
       </c>
       <c r="E142">
-        <v>21769</v>
+        <v>21773</v>
       </c>
       <c r="F142">
         <v>73431</v>
       </c>
       <c r="G142">
-        <v>0.006330708196999999</v>
+        <v>0.006331871448999999</v>
       </c>
       <c r="H142">
-        <v>0.0083392989966</v>
+        <v>0.008340831322200001</v>
       </c>
     </row>
     <row r="143">
@@ -4258,16 +4270,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E143">
-        <v>12386</v>
+        <v>12388</v>
       </c>
       <c r="F143">
         <v>41113</v>
       </c>
       <c r="G143">
-        <v>0.0036020098179999995</v>
+        <v>0.003602591443999999</v>
       </c>
       <c r="H143">
-        <v>0.0047448462204</v>
+        <v>0.004745612383200001</v>
       </c>
     </row>
     <row r="144">
@@ -4284,16 +4296,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E144">
-        <v>14408</v>
+        <v>14399</v>
       </c>
       <c r="F144">
         <v>14044</v>
       </c>
       <c r="G144">
-        <v>0.004190033703999999</v>
+        <v>0.004187416387</v>
       </c>
       <c r="H144">
-        <v>0.0055194368112</v>
+        <v>0.0055159890786</v>
       </c>
     </row>
     <row r="145">
@@ -4310,16 +4322,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E145">
-        <v>14540</v>
+        <v>14522</v>
       </c>
       <c r="F145">
         <v>14176</v>
       </c>
       <c r="G145">
-        <v>0.0042284210199999995</v>
+        <v>0.004223186386</v>
       </c>
       <c r="H145">
-        <v>0.005570003556000001</v>
+        <v>0.0055631080908</v>
       </c>
     </row>
     <row r="146">
@@ -4336,16 +4348,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E146">
-        <v>38324</v>
+        <v>38571</v>
       </c>
       <c r="F146">
         <v>37960</v>
       </c>
       <c r="G146">
-        <v>0.011145117411999998</v>
+        <v>0.011216948222999998</v>
       </c>
       <c r="H146">
-        <v>0.014681211573600002</v>
+        <v>0.014775832679400004</v>
       </c>
     </row>
     <row r="147">
@@ -4362,16 +4374,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E147">
-        <v>15429</v>
+        <v>15191</v>
       </c>
       <c r="F147">
         <v>14836</v>
       </c>
       <c r="G147">
-        <v>0.004486953776999999</v>
+        <v>0.004417740282999999</v>
       </c>
       <c r="H147">
-        <v>0.005910562920600001</v>
+        <v>0.005819389547400001</v>
       </c>
     </row>
     <row r="148">
@@ -4379,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="B148" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.min.css?9b732da0-676d-e2a9-f71f-a44a107e3e96</v>
       </c>
       <c r="C148" t="str">
         <v>Stylesheet</v>
@@ -4440,16 +4452,16 @@
         <v>text/css</v>
       </c>
       <c r="E150">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="F150">
         <v>5820</v>
       </c>
       <c r="G150">
-        <v>0.0004106279559999999</v>
+        <v>0.00041091876899999993</v>
       </c>
       <c r="H150">
-        <v>0.0005409109368000001</v>
+        <v>0.0005412940182000001</v>
       </c>
     </row>
     <row r="151">
@@ -4457,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="B151" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/fleetwood-webcomponents.esm.js?9b732da0-676d-e2a9-f71f-a44a107e3e96</v>
       </c>
       <c r="C151" t="str">
         <v>Script</v>
@@ -4466,16 +4478,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E151">
-        <v>6932</v>
+        <v>6923</v>
       </c>
       <c r="F151">
         <v>17805</v>
       </c>
       <c r="G151">
-        <v>0.0020159157159999994</v>
+        <v>0.0020132983989999994</v>
       </c>
       <c r="H151">
-        <v>0.0026555202648000003</v>
+        <v>0.0026520725322</v>
       </c>
     </row>
     <row r="152">
@@ -4483,25 +4495,25 @@
         <v>3</v>
       </c>
       <c r="B152" t="str">
-        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
       </c>
       <c r="C152" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D152" t="str">
-        <v>application/json</v>
+        <v>image/webp</v>
       </c>
       <c r="E152">
-        <v>3058</v>
+        <v>53221</v>
       </c>
       <c r="F152">
-        <v>2686</v>
+        <v>52770</v>
       </c>
       <c r="G152">
-        <v>0.0008893061539999999</v>
+        <v>0.015477358672999998</v>
       </c>
       <c r="H152">
-        <v>0.0011714629212000002</v>
+        <v>0.0203879751894</v>
       </c>
     </row>
     <row r="153">
@@ -4509,25 +4521,22 @@
         <v>3</v>
       </c>
       <c r="B153" t="str">
-        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
       </c>
       <c r="C153" t="str">
-        <v>Document</v>
+        <v>Image</v>
       </c>
       <c r="D153" t="str">
-        <v>text/html</v>
+        <v/>
       </c>
       <c r="E153">
-        <v>3010</v>
-      </c>
-      <c r="F153">
-        <v>8796</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>0.0008753471299999999</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>0.001153075014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4535,25 +4544,25 @@
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
       </c>
       <c r="C154" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D154" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E154">
-        <v>12198</v>
+        <v>162594</v>
       </c>
       <c r="F154">
-        <v>24603</v>
+        <v>162208</v>
       </c>
       <c r="G154">
-        <v>0.0035473369739999995</v>
+        <v>0.047284448922</v>
       </c>
       <c r="H154">
-        <v>0.0046728269172000006</v>
+        <v>0.06228673715160002</v>
       </c>
     </row>
     <row r="155">
@@ -4561,25 +4570,25 @@
         <v>3</v>
       </c>
       <c r="B155" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
       </c>
       <c r="C155" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D155" t="str">
-        <v>application/x-javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E155">
-        <v>524</v>
+        <v>39583</v>
       </c>
       <c r="F155">
-        <v>69</v>
+        <v>39132</v>
       </c>
       <c r="G155">
-        <v>0.000152386012</v>
+        <v>0.011511250978999998</v>
       </c>
       <c r="H155">
-        <v>0.00020073465360000002</v>
+        <v>0.015163511056200002</v>
       </c>
     </row>
     <row r="156">
@@ -4587,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/lillestrom-treningspark7.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
       </c>
       <c r="C156" t="str">
         <v>Image</v>
@@ -4596,16 +4605,16 @@
         <v>image/webp</v>
       </c>
       <c r="E156">
-        <v>53221</v>
+        <v>386</v>
       </c>
       <c r="F156">
-        <v>52770</v>
+        <v>46918</v>
       </c>
       <c r="G156">
-        <v>0.015477358672999998</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H156">
-        <v>0.0203879751894</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="157">
@@ -4613,22 +4622,25 @@
         <v>3</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/familie-tur-og-aktivitet.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
       </c>
       <c r="C157" t="str">
         <v>Image</v>
       </c>
       <c r="D157" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>38325</v>
+      </c>
+      <c r="F157">
+        <v>37874</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>0.011145408224999999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>0.014681594655000001</v>
       </c>
     </row>
     <row r="158">
@@ -4636,22 +4648,25 @@
         <v>3</v>
       </c>
       <c r="B158" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nesa-nord2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
       </c>
       <c r="C158" t="str">
         <v>Image</v>
       </c>
       <c r="D158" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>39420</v>
+      </c>
+      <c r="F158">
+        <v>46918</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>0.011463848459999999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>0.015101068788</v>
       </c>
     </row>
     <row r="159">
@@ -4659,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/vaksinering-covid-19-norges-varemesse2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
       </c>
       <c r="C159" t="str">
         <v>Image</v>
@@ -4668,16 +4683,16 @@
         <v>image/webp</v>
       </c>
       <c r="E159">
-        <v>39583</v>
+        <v>43315</v>
       </c>
       <c r="F159">
-        <v>39132</v>
+        <v>42864</v>
       </c>
       <c r="G159">
-        <v>0.011511250978999998</v>
+        <v>0.012596565094999998</v>
       </c>
       <c r="H159">
-        <v>0.015163511056200002</v>
+        <v>0.016593170841000003</v>
       </c>
     </row>
     <row r="160">
@@ -4685,22 +4700,25 @@
         <v>3</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/radyr.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
       </c>
       <c r="C160" t="str">
         <v>Image</v>
       </c>
       <c r="D160" t="str">
-        <v/>
+        <v>image/webp</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>53211</v>
+      </c>
+      <c r="F160">
+        <v>52760</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>0.015474450542999998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>0.020384144375400003</v>
       </c>
     </row>
     <row r="161">
@@ -4708,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/volla-svommehall2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
       </c>
       <c r="C161" t="str">
         <v>Image</v>
@@ -4717,16 +4735,16 @@
         <v>image/webp</v>
       </c>
       <c r="E161">
-        <v>38325</v>
+        <v>386</v>
       </c>
       <c r="F161">
-        <v>37874</v>
+        <v>54802</v>
       </c>
       <c r="G161">
-        <v>0.011145408224999999</v>
+        <v>0.00011225381799999998</v>
       </c>
       <c r="H161">
-        <v>0.014681594655000001</v>
+        <v>0.0001478694204</v>
       </c>
     </row>
     <row r="162">
@@ -4734,25 +4752,22 @@
         <v>3</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/dsc039244.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
       </c>
       <c r="C162" t="str">
         <v>Image</v>
       </c>
       <c r="D162" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E162">
-        <v>97458</v>
-      </c>
-      <c r="F162">
-        <v>97072</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.028342053353999995</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0.0373343470812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4760,25 +4775,22 @@
         <v>3</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/smilende-dame-strekker-seg2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
       </c>
       <c r="C163" t="str">
         <v>Image</v>
       </c>
       <c r="D163" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E163">
-        <v>43315</v>
-      </c>
-      <c r="F163">
-        <v>42864</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.012596565094999998</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.016593170841000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4786,25 +4798,22 @@
         <v>3</v>
       </c>
       <c r="B164" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/frivillighetsprisen-2024.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
       </c>
       <c r="C164" t="str">
         <v>Image</v>
       </c>
       <c r="D164" t="str">
-        <v>image/webp</v>
+        <v/>
       </c>
       <c r="E164">
-        <v>53211</v>
-      </c>
-      <c r="F164">
-        <v>52760</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.015474450542999998</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0.020384144375400003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4812,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/ralingsoya_lars-mariasen-_-ralingen-kommune_rlg_04759.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
       </c>
       <c r="C165" t="str">
         <v>Image</v>
@@ -4835,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B166" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/nodre-oyeren2.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
       </c>
       <c r="C166" t="str">
         <v>Image</v>
@@ -4858,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/bankgarden.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
       </c>
       <c r="C167" t="str">
         <v>Image</v>
@@ -4881,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/sorumsand_blakerveien.webp</v>
+        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
       </c>
       <c r="C168" t="str">
         <v>Image</v>
@@ -4904,22 +4913,25 @@
         <v>3</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/energihuset.webp</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?9b732da0-676d-e2a9-f71f-a44a107e3e96</v>
       </c>
       <c r="C169" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D169" t="str">
-        <v/>
+        <v>application/x-javascript</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>9741</v>
+      </c>
+      <c r="F169">
+        <v>25748</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>0.002832809433</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>0.0037315959174000005</v>
       </c>
     </row>
     <row r="170">
@@ -4927,22 +4939,25 @@
         <v>3</v>
       </c>
       <c r="B170" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal-24b_liten.webp</v>
+        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
       </c>
       <c r="C170" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D170" t="str">
-        <v/>
+        <v>text/javascript</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>47192</v>
+      </c>
+      <c r="F170">
+        <v>237111</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>0.013724047096</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>0.0180783774288</v>
       </c>
     </row>
     <row r="171">
@@ -4950,22 +4965,25 @@
         <v>3</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/kvartal11.webp</v>
+        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
       </c>
       <c r="C171" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D171" t="str">
-        <v/>
+        <v>text/javascript</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>112064</v>
+      </c>
+      <c r="F171">
+        <v>457048</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>0.032589668031999995</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>0.0429296340096</v>
       </c>
     </row>
     <row r="172">
@@ -4973,22 +4991,25 @@
         <v>3</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.lillestrom.kommune.no/globalassets/mediaflow/barnehage2.webp</v>
+        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
       </c>
       <c r="C172" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D172" t="str">
-        <v/>
+        <v>application/javascript</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>5751</v>
+      </c>
+      <c r="F172">
+        <v>17044</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>0.0016724655629999999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>0.0022031011314</v>
       </c>
     </row>
     <row r="173">
@@ -4996,25 +5017,25 @@
         <v>3</v>
       </c>
       <c r="B173" t="str">
-        <v>https://design.lillestrom.kommune.no/assets/fleetwood.esm.min.js?1ccc73f8-bbee-a7e9-fc32-0233245f25d9</v>
+        <v>https://policy.app.cookieinformation.com/cookie-data/lillestrom.kommune.no/cabl.json</v>
       </c>
       <c r="C173" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D173" t="str">
-        <v>application/x-javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E173">
-        <v>9771</v>
+        <v>3060</v>
       </c>
       <c r="F173">
-        <v>25748</v>
+        <v>2686</v>
       </c>
       <c r="G173">
-        <v>0.0028415338229999996</v>
+        <v>0.0008898877799999999</v>
       </c>
       <c r="H173">
-        <v>0.0037430883594000005</v>
+        <v>0.0011722290840000002</v>
       </c>
     </row>
     <row r="174">
@@ -5022,25 +5043,25 @@
         <v>3</v>
       </c>
       <c r="B174" t="str">
-        <v>https://customer.cludo.com/scripts/bundles/search-script.min.js</v>
+        <v>https://policy.app.cookieinformation.com/cookiesharingiframe.html</v>
       </c>
       <c r="C174" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D174" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E174">
-        <v>47190</v>
+        <v>3012</v>
       </c>
       <c r="F174">
-        <v>237111</v>
+        <v>8796</v>
       </c>
       <c r="G174">
-        <v>0.013723465469999998</v>
+        <v>0.0008759287559999999</v>
       </c>
       <c r="H174">
-        <v>0.018077611266000004</v>
+        <v>0.0011538411768000003</v>
       </c>
     </row>
     <row r="175">
@@ -5048,25 +5069,25 @@
         <v>3</v>
       </c>
       <c r="B175" t="str">
-        <v>https://customer.cludo.com/templates/rich-inline/v1.0/dist/js/cludo-search-results.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-CVFjR2m_.js</v>
       </c>
       <c r="C175" t="str">
         <v>Script</v>
       </c>
       <c r="D175" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E175">
-        <v>112060</v>
+        <v>12207</v>
       </c>
       <c r="F175">
-        <v>457048</v>
+        <v>24603</v>
       </c>
       <c r="G175">
-        <v>0.03258850477999999</v>
+        <v>0.0035499542909999994</v>
       </c>
       <c r="H175">
-        <v>0.042928101684</v>
+        <v>0.004676274649800001</v>
       </c>
     </row>
     <row r="176">
@@ -5074,25 +5095,25 @@
         <v>3</v>
       </c>
       <c r="B176" t="str">
-        <v>https://analytics.silktide.com/b3d3331738c7439b1c19ac76aec31696.js</v>
+        <v>https://design.lillestrom.kommune.no/assets/fleetwood-webcomponents/p-DQuL1Twl.js</v>
       </c>
       <c r="C176" t="str">
         <v>Script</v>
       </c>
       <c r="D176" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E176">
-        <v>5760</v>
+        <v>533</v>
       </c>
       <c r="F176">
-        <v>17044</v>
+        <v>69</v>
       </c>
       <c r="G176">
-        <v>0.0016750828799999998</v>
+        <v>0.00015500332899999998</v>
       </c>
       <c r="H176">
-        <v>0.002206548864</v>
+        <v>0.00020418238620000006</v>
       </c>
     </row>
     <row r="177">
@@ -5109,16 +5130,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E177">
-        <v>15437</v>
+        <v>15445</v>
       </c>
       <c r="F177">
         <v>52154</v>
       </c>
       <c r="G177">
-        <v>0.004489280280999999</v>
+        <v>0.0044916067849999994</v>
       </c>
       <c r="H177">
-        <v>0.005913627571800002</v>
+        <v>0.005916692223</v>
       </c>
     </row>
     <row r="178">
@@ -5161,16 +5182,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E179">
-        <v>1206</v>
+        <v>1245</v>
       </c>
       <c r="F179">
         <v>1132</v>
       </c>
       <c r="G179">
-        <v>0.000350720478</v>
+        <v>0.00036206218499999993</v>
       </c>
       <c r="H179">
-        <v>0.00046199616840000005</v>
+        <v>0.0004769363430000001</v>
       </c>
     </row>
     <row r="180">
@@ -5239,16 +5260,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E182">
-        <v>1343</v>
+        <v>1259</v>
       </c>
       <c r="F182">
         <v>2080</v>
       </c>
       <c r="G182">
-        <v>0.00039056185899999997</v>
+        <v>0.00036613356699999994</v>
       </c>
       <c r="H182">
-        <v>0.0005144783202000002</v>
+        <v>0.00048229948260000005</v>
       </c>
     </row>
     <row r="183">
@@ -5265,16 +5286,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E183">
-        <v>1185</v>
+        <v>1287</v>
       </c>
       <c r="F183">
         <v>1611</v>
       </c>
       <c r="G183">
-        <v>0.0003446134049999999</v>
+        <v>0.00037427633099999997</v>
       </c>
       <c r="H183">
-        <v>0.0004539514590000001</v>
+        <v>0.0004930257618</v>
       </c>
     </row>
     <row r="184">
@@ -5291,16 +5312,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E184">
-        <v>1193</v>
+        <v>1202</v>
       </c>
       <c r="F184">
         <v>1651</v>
       </c>
       <c r="G184">
-        <v>0.000346939909</v>
+        <v>0.000349557226</v>
       </c>
       <c r="H184">
-        <v>0.00045701611020000003</v>
+        <v>0.0004604638428000001</v>
       </c>
     </row>
     <row r="185">
@@ -5499,16 +5520,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E192">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="F192">
         <v>1189</v>
       </c>
       <c r="G192">
-        <v>0.00027336421999999994</v>
+        <v>0.0002759815369999999</v>
       </c>
       <c r="H192">
-        <v>0.00036009651599999996</v>
+        <v>0.0003635442486</v>
       </c>
     </row>
     <row r="193">
@@ -5525,16 +5546,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E193">
-        <v>1384</v>
+        <v>1393</v>
       </c>
       <c r="F193">
         <v>3816</v>
       </c>
       <c r="G193">
-        <v>0.00040248519199999994</v>
+        <v>0.000405102509</v>
       </c>
       <c r="H193">
-        <v>0.0005301846576</v>
+        <v>0.0005336323901999999</v>
       </c>
     </row>
     <row r="194">
@@ -5551,16 +5572,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E194">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="F194">
         <v>1577</v>
       </c>
       <c r="G194">
-        <v>0.00033821551899999993</v>
+        <v>0.00033559820199999995</v>
       </c>
       <c r="H194">
-        <v>0.00044552366819999997</v>
+        <v>0.00044207593560000003</v>
       </c>
     </row>
     <row r="195">
@@ -5629,16 +5650,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E197">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F197">
         <v>655</v>
       </c>
       <c r="G197">
-        <v>0.000147733004</v>
+        <v>0.000150350321</v>
       </c>
       <c r="H197">
-        <v>0.00019460535120000003</v>
+        <v>0.00019805308380000002</v>
       </c>
     </row>
     <row r="198">
@@ -5649,22 +5670,19 @@
         <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C198" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D198" t="str">
-        <v>text/plain</v>
+        <v>application/json</v>
       </c>
       <c r="E198">
-        <v>122</v>
-      </c>
-      <c r="F198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>0.00003547918599999999</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>0.00004673593080000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -5672,25 +5690,25 @@
         <v>3</v>
       </c>
       <c r="B199" t="str">
-        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
+        <v>https://a.eu.silktide.com/v1/events</v>
       </c>
       <c r="C199" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D199" t="str">
-        <v>application/javascript</v>
+        <v>text/plain</v>
       </c>
       <c r="E199">
-        <v>15034</v>
+        <v>123</v>
       </c>
       <c r="F199">
-        <v>277097</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>0.004372082641999999</v>
+        <v>0.000035769998999999995</v>
       </c>
       <c r="H199">
-        <v>0.0057592457676</v>
+        <v>0.000047119012200000003</v>
       </c>
     </row>
     <row r="200">
@@ -5698,22 +5716,25 @@
         <v>3</v>
       </c>
       <c r="B200" t="str">
-        <v>https://a.eu.silktide.com/v1/events</v>
+        <v>https://policy.app.cookieinformation.com/2bc36c7/lillestrom.kommune.no/nb.js</v>
       </c>
       <c r="C200" t="str">
-        <v>Preflight</v>
+        <v>Script</v>
       </c>
       <c r="D200" t="str">
-        <v>application/json</v>
+        <v>application/javascript</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>15031</v>
+      </c>
+      <c r="F200">
+        <v>277097</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>0.004371210202999999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>0.005758096523400001</v>
       </c>
     </row>
     <row r="201">
@@ -5851,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="B206" t="str">
-        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=365&amp;prev=a1595cdd-016b-bd36-0ccc-e9b409cbc3a5&amp;luid=6edbb5f3-6d66-5697-a665-94c027b75efd&amp;rnd=52327</v>
+        <v>https://6002182.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.lillestrom.kommune.no%2F&amp;title=Lillestr%C3%B8m%20kommune&amp;res=412x823&amp;accountid=6002182&amp;rt=474&amp;prev=3782d2da-c906-c97f-dfba-8d979dfe4606&amp;luid=7342582e-de5e-ad03-b8e6-660b28611350&amp;rnd=62317</v>
       </c>
       <c r="C206" t="str">
         <v>Image</v>
@@ -5860,16 +5881,16 @@
         <v>image/gif</v>
       </c>
       <c r="E206">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F206">
         <v>34</v>
       </c>
       <c r="G206">
-        <v>0.00006107072999999999</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H206">
-        <v>0.00008044709400000001</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="207">
@@ -6038,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>74341</v>
+        <v>74350</v>
       </c>
       <c r="D2">
         <v>246681</v>
@@ -6052,7 +6073,7 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>744513</v>
+        <v>744678</v>
       </c>
       <c r="D3">
         <v>3515958</v>
@@ -6066,7 +6087,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>248076</v>
+        <v>247892</v>
       </c>
       <c r="D4">
         <v>243048</v>
@@ -6094,10 +6115,10 @@
         <v>111</v>
       </c>
       <c r="C6">
-        <v>1655954</v>
+        <v>2400679</v>
       </c>
       <c r="D6">
-        <v>1843682</v>
+        <v>2604898</v>
       </c>
     </row>
     <row r="7">
@@ -6108,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>9540</v>
+        <v>9543</v>
       </c>
       <c r="D7">
         <v>8064</v>
@@ -6203,13 +6224,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1323488</v>
+        <v>1216696</v>
       </c>
       <c r="C2">
-        <v>0.384887515744</v>
+        <v>0.3538310138479999</v>
       </c>
       <c r="D2">
-        <v>0.5070036359232</v>
+        <v>0.46609360705440006</v>
       </c>
     </row>
     <row r="3">
@@ -6217,13 +6238,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>874911</v>
+        <v>1621032</v>
       </c>
       <c r="C3">
-        <v>0.25443549264299997</v>
+        <v>0.47141717901599994</v>
       </c>
       <c r="D3">
-        <v>0.3351621307554001</v>
+        <v>0.6209872080048</v>
       </c>
     </row>
     <row r="4">
@@ -6231,13 +6252,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>803359</v>
+        <v>908748</v>
       </c>
       <c r="C4">
-        <v>0.23362724086699999</v>
+        <v>0.26427573212399996</v>
       </c>
       <c r="D4">
-        <v>0.3077518904226</v>
+        <v>0.34812445608720005</v>
       </c>
     </row>
     <row r="5">
@@ -6245,13 +6266,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>874911</v>
+        <v>1216696</v>
       </c>
       <c r="C5">
-        <v>0.25443549264299997</v>
+        <v>0.3538310138479999</v>
       </c>
       <c r="D5">
-        <v>0.3351621307554001</v>
+        <v>0.46609360705440006</v>
       </c>
     </row>
   </sheetData>
